--- a/Backend/resultado.xlsx
+++ b/Backend/resultado.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AD134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -495,1603 +495,5860 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>1725</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C2" t="str">
-        <v>3730244064779</v>
+        <v>MAG3366456710</v>
       </c>
       <c r="D2" t="str">
-        <v>3730244064779</v>
-      </c>
-      <c r="E2" t="str">
-        <v>09/10/2025</v>
+        <v>MAG3366456710</v>
+      </c>
+      <c r="E2">
+        <v>45960</v>
       </c>
       <c r="H2">
-        <v>35.07</v>
-      </c>
-      <c r="I2">
-        <v>5.61</v>
-      </c>
-      <c r="J2">
-        <v>16</v>
+        <v>318.5</v>
+      </c>
+      <c r="K2" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R2" t="str">
+        <v>CP0003</v>
+      </c>
+      <c r="T2" t="str">
+        <v>rafaelbassan8@gmail.com</v>
+      </c>
+      <c r="W2">
+        <v>24</v>
+      </c>
+      <c r="Y2">
+        <v>45958</v>
+      </c>
+      <c r="Z2">
+        <v>45958</v>
       </c>
       <c r="AC2" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>1725</v>
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C3" t="str">
-        <v>3730244196270</v>
+        <v>MAG3018760266</v>
       </c>
       <c r="D3" t="str">
-        <v>3730244196270</v>
-      </c>
-      <c r="E3" t="str">
-        <v>09/10/2025</v>
+        <v>MAG3018760266</v>
+      </c>
+      <c r="E3">
+        <v>45960</v>
       </c>
       <c r="H3">
-        <v>165.07</v>
-      </c>
-      <c r="I3">
-        <v>26.42</v>
-      </c>
-      <c r="J3">
-        <v>16.01</v>
+        <v>2385.45</v>
+      </c>
+      <c r="K3" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R3" t="str">
+        <v>CP0003</v>
+      </c>
+      <c r="T3" t="str">
+        <v>iagomartins079@gmail.com</v>
+      </c>
+      <c r="W3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>45957</v>
+      </c>
+      <c r="Z3">
+        <v>45958</v>
       </c>
       <c r="AC3" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>1725</v>
+      <c r="A4">
+        <v>0</v>
       </c>
       <c r="B4" t="str">
         <v>V8 DIGITAL</v>
       </c>
-      <c r="C4" t="str">
-        <v>3730TAQVA0492</v>
-      </c>
-      <c r="D4" t="str">
-        <v>3730TAQVA0492</v>
-      </c>
-      <c r="E4" t="str">
-        <v>09/10/2025</v>
+      <c r="C4">
+        <v>3730256103368</v>
+      </c>
+      <c r="D4">
+        <v>3730256103368</v>
+      </c>
+      <c r="E4">
+        <v>45960</v>
       </c>
       <c r="H4">
-        <v>523.1</v>
-      </c>
-      <c r="I4">
-        <v>130.8</v>
-      </c>
-      <c r="J4">
-        <v>25</v>
+        <v>65.94</v>
+      </c>
+      <c r="K4" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R4" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T4" t="str">
+        <v>mogiana.credito@gmail.com</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>45959</v>
+      </c>
+      <c r="Z4">
+        <v>45959</v>
       </c>
       <c r="AC4" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>1725</v>
+      <c r="A5">
+        <v>0</v>
       </c>
       <c r="B5" t="str">
         <v>V8 DIGITAL</v>
       </c>
-      <c r="C5" t="str">
-        <v>37350QNJD8600</v>
-      </c>
-      <c r="D5" t="str">
-        <v>37350QNJD8600</v>
-      </c>
-      <c r="E5" t="str">
-        <v>09/10/2025</v>
+      <c r="C5">
+        <v>3730256171366</v>
+      </c>
+      <c r="D5">
+        <v>3730256171366</v>
+      </c>
+      <c r="E5">
+        <v>45960</v>
       </c>
       <c r="H5">
-        <v>349.39</v>
-      </c>
-      <c r="I5">
-        <v>150.26</v>
-      </c>
-      <c r="J5">
-        <v>43.01</v>
+        <v>189.04</v>
+      </c>
+      <c r="K5" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P5" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R5" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T5" t="str">
+        <v>mogiana.credito@gmail.com</v>
+      </c>
+      <c r="W5">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>45959</v>
+      </c>
+      <c r="Z5">
+        <v>45959</v>
       </c>
       <c r="AC5" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>1725</v>
+      <c r="A6">
+        <v>0</v>
       </c>
       <c r="B6" t="str">
         <v>V8 DIGITAL</v>
       </c>
-      <c r="C6" t="str">
-        <v>3735VWCVP7392</v>
-      </c>
-      <c r="D6" t="str">
-        <v>3735VWCVP7392</v>
-      </c>
-      <c r="E6" t="str">
-        <v>09/10/2025</v>
+      <c r="C6">
+        <v>3730256115849</v>
+      </c>
+      <c r="D6">
+        <v>3730256115849</v>
+      </c>
+      <c r="E6">
+        <v>45960</v>
       </c>
       <c r="H6">
-        <v>1819.75</v>
-      </c>
-      <c r="I6">
-        <v>455.01</v>
-      </c>
-      <c r="J6">
-        <v>25</v>
+        <v>183.29</v>
+      </c>
+      <c r="K6" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P6" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R6" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T6" t="str">
+        <v>danny_jesza@yahoo.com.br</v>
+      </c>
+      <c r="W6">
+        <v>9</v>
+      </c>
+      <c r="Y6">
+        <v>45959</v>
+      </c>
+      <c r="Z6">
+        <v>45959</v>
       </c>
       <c r="AC6" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>1725</v>
+      <c r="A7">
+        <v>0</v>
       </c>
       <c r="B7" t="str">
         <v>V8 DIGITAL</v>
       </c>
-      <c r="C7" t="str">
-        <v>3737GX18A9181</v>
-      </c>
-      <c r="D7" t="str">
-        <v>3737GX18A9181</v>
-      </c>
-      <c r="E7" t="str">
-        <v>09/10/2025</v>
+      <c r="C7">
+        <v>3730256345470</v>
+      </c>
+      <c r="D7">
+        <v>3730256345470</v>
+      </c>
+      <c r="E7">
+        <v>45960</v>
       </c>
       <c r="H7">
-        <v>373.29</v>
-      </c>
-      <c r="I7">
-        <v>93.34</v>
-      </c>
-      <c r="J7">
-        <v>25</v>
+        <v>495.9</v>
+      </c>
+      <c r="K7" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P7" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R7" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T7" t="str">
+        <v>patrickferras2004@gmail.com</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>45959</v>
+      </c>
+      <c r="Z7">
+        <v>45959</v>
       </c>
       <c r="AC7" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>1725</v>
+      <c r="A8">
+        <v>0</v>
       </c>
       <c r="B8" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C8" t="str">
-        <v>3737YXF2M9988</v>
+        <v>373IOI3L24954</v>
       </c>
       <c r="D8" t="str">
-        <v>3737YXF2M9988</v>
-      </c>
-      <c r="E8" t="str">
-        <v>09/10/2025</v>
+        <v>373IOI3L24954</v>
+      </c>
+      <c r="E8">
+        <v>45960</v>
       </c>
       <c r="H8">
-        <v>80.76</v>
-      </c>
-      <c r="I8">
-        <v>34.73</v>
-      </c>
-      <c r="J8">
-        <v>43</v>
+        <v>93.22</v>
+      </c>
+      <c r="K8" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P8" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R8" t="str">
+        <v>BR0032</v>
+      </c>
+      <c r="T8" t="str">
+        <v>fran.digiulio@hotmail.com</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>45959</v>
+      </c>
+      <c r="Z8">
+        <v>45959</v>
       </c>
       <c r="AC8" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>1725</v>
+      <c r="A9">
+        <v>0</v>
       </c>
       <c r="B9" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C9" t="str">
-        <v>373AMOX068361</v>
+        <v>373HTWZOJ1314</v>
       </c>
       <c r="D9" t="str">
-        <v>373AMOX068361</v>
-      </c>
-      <c r="E9" t="str">
-        <v>09/10/2025</v>
+        <v>373HTWZOJ1314</v>
+      </c>
+      <c r="E9">
+        <v>45960</v>
       </c>
       <c r="H9">
-        <v>173.18</v>
-      </c>
-      <c r="I9">
-        <v>74.48</v>
-      </c>
-      <c r="J9">
-        <v>43.01</v>
+        <v>101.88</v>
+      </c>
+      <c r="K9" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P9" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R9" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T9" t="str">
+        <v>danny_jesza@yahoo.com.br</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>45959</v>
+      </c>
+      <c r="Z9">
+        <v>45959</v>
       </c>
       <c r="AC9" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>1725</v>
+      <c r="A10">
+        <v>0</v>
       </c>
       <c r="B10" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C10" t="str">
-        <v>373AOSBRC2060</v>
+        <v>373NGKYQ14814</v>
       </c>
       <c r="D10" t="str">
-        <v>373AOSBRC2060</v>
-      </c>
-      <c r="E10" t="str">
-        <v>09/10/2025</v>
+        <v>373NGKYQ14814</v>
+      </c>
+      <c r="E10">
+        <v>45960</v>
       </c>
       <c r="H10">
-        <v>140.42</v>
-      </c>
-      <c r="I10">
-        <v>60.39</v>
-      </c>
-      <c r="J10">
-        <v>43.01</v>
+        <v>41.53</v>
+      </c>
+      <c r="K10" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P10" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R10" t="str">
+        <v>BR0032</v>
+      </c>
+      <c r="T10" t="str">
+        <v>fran.digiulio@hotmail.com</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>45959</v>
+      </c>
+      <c r="Z10">
+        <v>45959</v>
       </c>
       <c r="AC10" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>1725</v>
+      <c r="A11">
+        <v>0</v>
       </c>
       <c r="B11" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C11" t="str">
-        <v>373AXH9BW6585</v>
+        <v>373F668RB3704</v>
       </c>
       <c r="D11" t="str">
-        <v>373AXH9BW6585</v>
-      </c>
-      <c r="E11" t="str">
-        <v>09/10/2025</v>
+        <v>373F668RB3704</v>
+      </c>
+      <c r="E11">
+        <v>45960</v>
       </c>
       <c r="H11">
-        <v>96.06</v>
-      </c>
-      <c r="I11">
-        <v>24.02</v>
-      </c>
-      <c r="J11">
-        <v>25.01</v>
+        <v>56.66</v>
+      </c>
+      <c r="K11" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P11" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R11" t="str">
+        <v>BR0032</v>
+      </c>
+      <c r="T11" t="str">
+        <v>neilacris26@gmail.com</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>45959</v>
+      </c>
+      <c r="Z11">
+        <v>45959</v>
       </c>
       <c r="AC11" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>1725</v>
+      <c r="A12">
+        <v>0</v>
       </c>
       <c r="B12" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C12" t="str">
-        <v>373BDUXHL4887</v>
+        <v>373EHIBCB5080</v>
       </c>
       <c r="D12" t="str">
-        <v>373BDUXHL4887</v>
-      </c>
-      <c r="E12" t="str">
-        <v>09/10/2025</v>
+        <v>373EHIBCB5080</v>
+      </c>
+      <c r="E12">
+        <v>45960</v>
       </c>
       <c r="H12">
-        <v>85.86</v>
-      </c>
-      <c r="I12">
-        <v>36.93</v>
-      </c>
-      <c r="J12">
-        <v>43.01</v>
+        <v>117.34</v>
+      </c>
+      <c r="K12" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P12" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R12" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T12" t="str">
+        <v>mogiana.credito@gmail.com</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>45959</v>
+      </c>
+      <c r="Z12">
+        <v>45959</v>
       </c>
       <c r="AC12" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>1725</v>
+      <c r="A13">
+        <v>0</v>
       </c>
       <c r="B13" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C13" t="str">
-        <v>373EB73D58926</v>
+        <v>373TOYI2A8678</v>
       </c>
       <c r="D13" t="str">
-        <v>373EB73D58926</v>
-      </c>
-      <c r="E13" t="str">
-        <v>09/10/2025</v>
+        <v>373TOYI2A8678</v>
+      </c>
+      <c r="E13">
+        <v>45960</v>
       </c>
       <c r="H13">
-        <v>223.29</v>
-      </c>
-      <c r="I13">
-        <v>96.03</v>
-      </c>
-      <c r="J13">
-        <v>43.01</v>
+        <v>60.21</v>
+      </c>
+      <c r="K13" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P13" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R13" t="str">
+        <v>BR0032</v>
+      </c>
+      <c r="T13" t="str">
+        <v>fran.digiulio@hotmail.com</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>45959</v>
+      </c>
+      <c r="Z13">
+        <v>45959</v>
       </c>
       <c r="AC13" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>1725</v>
+      <c r="A14">
+        <v>0</v>
       </c>
       <c r="B14" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C14" t="str">
-        <v>373FC7SHH4310</v>
+        <v>3736WCYJQ0730</v>
       </c>
       <c r="D14" t="str">
-        <v>373FC7SHH4310</v>
-      </c>
-      <c r="E14" t="str">
-        <v>09/10/2025</v>
+        <v>3736WCYJQ0730</v>
+      </c>
+      <c r="E14">
+        <v>45960</v>
       </c>
       <c r="H14">
-        <v>410.51</v>
-      </c>
-      <c r="I14">
-        <v>102.64</v>
-      </c>
-      <c r="J14">
-        <v>25</v>
+        <v>148.6</v>
+      </c>
+      <c r="K14" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R14" t="str">
+        <v>BR0032</v>
+      </c>
+      <c r="T14" t="str">
+        <v>fran.digiulio@hotmail.com</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="Y14">
+        <v>45959</v>
+      </c>
+      <c r="Z14">
+        <v>45959</v>
       </c>
       <c r="AC14" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>1725</v>
+      <c r="A15">
+        <v>0</v>
       </c>
       <c r="B15" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C15" t="str">
-        <v>373HO6PV96961</v>
+        <v>3732NJXC60941</v>
       </c>
       <c r="D15" t="str">
-        <v>373HO6PV96961</v>
-      </c>
-      <c r="E15" t="str">
-        <v>09/10/2025</v>
+        <v>3732NJXC60941</v>
+      </c>
+      <c r="E15">
+        <v>45960</v>
       </c>
       <c r="H15">
-        <v>1204.89</v>
-      </c>
-      <c r="I15">
-        <v>301.27</v>
-      </c>
-      <c r="J15">
-        <v>25</v>
+        <v>185.16</v>
+      </c>
+      <c r="K15" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P15" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R15" t="str">
+        <v>BR0032</v>
+      </c>
+      <c r="T15" t="str">
+        <v>mogiana.credito@gmail.com</v>
+      </c>
+      <c r="W15">
+        <v>8</v>
+      </c>
+      <c r="Y15">
+        <v>45959</v>
+      </c>
+      <c r="Z15">
+        <v>45959</v>
       </c>
       <c r="AC15" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>1725</v>
+      <c r="A16">
+        <v>0</v>
       </c>
       <c r="B16" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C16" t="str">
-        <v>373I8Z8Y05206</v>
+        <v>373A4GF2A1810</v>
       </c>
       <c r="D16" t="str">
-        <v>373I8Z8Y05206</v>
-      </c>
-      <c r="E16" t="str">
-        <v>09/10/2025</v>
+        <v>373A4GF2A1810</v>
+      </c>
+      <c r="E16">
+        <v>45960</v>
       </c>
       <c r="H16">
-        <v>97.02</v>
-      </c>
-      <c r="I16">
-        <v>24.26</v>
-      </c>
-      <c r="J16">
-        <v>25.01</v>
+        <v>91.43</v>
+      </c>
+      <c r="K16" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P16" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R16" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T16" t="str">
+        <v>mogiana.credito@gmail.com</v>
+      </c>
+      <c r="W16">
+        <v>8</v>
+      </c>
+      <c r="Y16">
+        <v>45959</v>
+      </c>
+      <c r="Z16">
+        <v>45959</v>
       </c>
       <c r="AC16" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>1725</v>
+      <c r="A17">
+        <v>0</v>
       </c>
       <c r="B17" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C17" t="str">
-        <v>373KO1D3O7921</v>
+        <v>3737MJR3K9984</v>
       </c>
       <c r="D17" t="str">
-        <v>373KO1D3O7921</v>
-      </c>
-      <c r="E17" t="str">
-        <v>09/10/2025</v>
+        <v>3737MJR3K9984</v>
+      </c>
+      <c r="E17">
+        <v>45960</v>
       </c>
       <c r="H17">
-        <v>110.78</v>
-      </c>
-      <c r="I17">
-        <v>47.64</v>
-      </c>
-      <c r="J17">
-        <v>43</v>
+        <v>113.44</v>
+      </c>
+      <c r="K17" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P17" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R17" t="str">
+        <v>BR0032</v>
+      </c>
+      <c r="T17" t="str">
+        <v>fran.digiulio@hotmail.com</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>45959</v>
+      </c>
+      <c r="Z17">
+        <v>45959</v>
       </c>
       <c r="AC17" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>1725</v>
+      <c r="A18">
+        <v>0</v>
       </c>
       <c r="B18" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C18" t="str">
-        <v>373O9IOB51019</v>
+        <v>373C254956MKQADXW</v>
       </c>
       <c r="D18" t="str">
-        <v>373O9IOB51019</v>
-      </c>
-      <c r="E18" t="str">
-        <v>09/10/2025</v>
+        <v>373C254956MKQADXW</v>
+      </c>
+      <c r="E18">
+        <v>45960</v>
       </c>
       <c r="H18">
-        <v>60.35</v>
-      </c>
-      <c r="I18">
-        <v>33.8</v>
-      </c>
-      <c r="J18">
-        <v>56.01</v>
+        <v>70</v>
+      </c>
+      <c r="K18" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P18" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R18" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T18" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W18">
+        <v>9</v>
+      </c>
+      <c r="Y18">
+        <v>45959</v>
+      </c>
+      <c r="Z18">
+        <v>45959</v>
       </c>
       <c r="AC18" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>1725</v>
+      <c r="A19">
+        <v>0</v>
       </c>
       <c r="B19" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C19" t="str">
-        <v>373RFSHCL7926</v>
+        <v>373C253242RBAURQS</v>
       </c>
       <c r="D19" t="str">
-        <v>373RFSHCL7926</v>
-      </c>
-      <c r="E19" t="str">
-        <v>09/10/2025</v>
+        <v>373C253242RBAURQS</v>
+      </c>
+      <c r="E19">
+        <v>45960</v>
       </c>
       <c r="H19">
-        <v>601.39</v>
-      </c>
-      <c r="I19">
-        <v>150.37</v>
-      </c>
-      <c r="J19">
-        <v>25</v>
+        <v>54.07</v>
+      </c>
+      <c r="K19" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P19" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R19" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T19" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>45959</v>
+      </c>
+      <c r="Z19">
+        <v>45959</v>
       </c>
       <c r="AC19" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>1725</v>
+      <c r="A20">
+        <v>0</v>
       </c>
       <c r="B20" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C20" t="str">
-        <v>373SABQ8U3058</v>
+        <v>373C253476VMDYNQN</v>
       </c>
       <c r="D20" t="str">
-        <v>373SABQ8U3058</v>
-      </c>
-      <c r="E20" t="str">
-        <v>09/10/2025</v>
+        <v>373C253476VMDYNQN</v>
+      </c>
+      <c r="E20">
+        <v>45960</v>
       </c>
       <c r="H20">
-        <v>1188.76</v>
-      </c>
-      <c r="I20">
-        <v>356.64</v>
-      </c>
-      <c r="J20">
-        <v>30</v>
+        <v>124.88</v>
+      </c>
+      <c r="K20" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P20" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R20" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T20" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W20">
+        <v>15</v>
+      </c>
+      <c r="Y20">
+        <v>45959</v>
+      </c>
+      <c r="Z20">
+        <v>45959</v>
       </c>
       <c r="AC20" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>1725</v>
+      <c r="A21">
+        <v>0</v>
       </c>
       <c r="B21" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C21" t="str">
-        <v>373VB39LY1499</v>
+        <v>373C253545UGDRSM5</v>
       </c>
       <c r="D21" t="str">
-        <v>373VB39LY1499</v>
-      </c>
-      <c r="E21" t="str">
-        <v>09/10/2025</v>
+        <v>373C253545UGDRSM5</v>
+      </c>
+      <c r="E21">
+        <v>45960</v>
       </c>
       <c r="H21">
-        <v>240.7</v>
-      </c>
-      <c r="I21">
-        <v>60.18</v>
-      </c>
-      <c r="J21">
-        <v>25</v>
+        <v>135.49</v>
+      </c>
+      <c r="K21" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P21" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R21" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T21" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W21">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>45959</v>
+      </c>
+      <c r="Z21">
+        <v>45959</v>
       </c>
       <c r="AC21" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>1725</v>
+      <c r="A22">
+        <v>0</v>
       </c>
       <c r="B22" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C22" t="str">
-        <v>373X3VPAG9063</v>
+        <v>373C253383SARPCZ6</v>
       </c>
       <c r="D22" t="str">
-        <v>373X3VPAG9063</v>
-      </c>
-      <c r="E22" t="str">
-        <v>09/10/2025</v>
+        <v>373C253383SARPCZ6</v>
+      </c>
+      <c r="E22">
+        <v>45960</v>
       </c>
       <c r="H22">
-        <v>94.28</v>
-      </c>
-      <c r="I22">
-        <v>23.57</v>
-      </c>
-      <c r="J22">
-        <v>25</v>
+        <v>74.39</v>
+      </c>
+      <c r="K22" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P22" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R22" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T22" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W22">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>45959</v>
+      </c>
+      <c r="Z22">
+        <v>45959</v>
       </c>
       <c r="AC22" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>1725</v>
+      <c r="A23">
+        <v>0</v>
       </c>
       <c r="B23" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C23" t="str">
-        <v>373c252266RPVKVY5</v>
+        <v>373C256526WYPJRJU</v>
       </c>
       <c r="D23" t="str">
-        <v>373c252266RPVKVY5</v>
-      </c>
-      <c r="E23" t="str">
-        <v>09/10/2025</v>
+        <v>373C256526WYPJRJU</v>
+      </c>
+      <c r="E23">
+        <v>45960</v>
       </c>
       <c r="H23">
-        <v>52.64</v>
-      </c>
-      <c r="I23">
-        <v>8.43</v>
-      </c>
-      <c r="J23">
-        <v>16.01</v>
+        <v>62.72</v>
+      </c>
+      <c r="K23" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P23" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R23" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T23" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>45959</v>
+      </c>
+      <c r="Z23">
+        <v>45959</v>
       </c>
       <c r="AC23" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v>1725</v>
+      <c r="A24">
+        <v>0</v>
       </c>
       <c r="B24" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C24" t="str">
-        <v>373c252374SAZDTDU</v>
+        <v>373C258589HCJGGXT</v>
       </c>
       <c r="D24" t="str">
-        <v>373c252374SAZDTDU</v>
-      </c>
-      <c r="E24" t="str">
-        <v>09/10/2025</v>
+        <v>373C258589HCJGGXT</v>
+      </c>
+      <c r="E24">
+        <v>45960</v>
       </c>
       <c r="H24">
-        <v>90.8</v>
-      </c>
-      <c r="I24">
-        <v>27.7</v>
-      </c>
-      <c r="J24">
-        <v>30.51</v>
+        <v>20.35</v>
+      </c>
+      <c r="K24" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P24" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R24" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T24" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>45959</v>
+      </c>
+      <c r="Z24">
+        <v>45959</v>
       </c>
       <c r="AC24" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>1725</v>
+      <c r="A25">
+        <v>0</v>
       </c>
       <c r="B25" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C25" t="str">
-        <v>373c252468SNWXGRW</v>
+        <v>373C259567KCKNWDY</v>
       </c>
       <c r="D25" t="str">
-        <v>373c252468SNWXGRW</v>
-      </c>
-      <c r="E25" t="str">
-        <v>09/10/2025</v>
+        <v>373C259567KCKNWDY</v>
+      </c>
+      <c r="E25">
+        <v>45960</v>
       </c>
       <c r="H25">
-        <v>109.18</v>
-      </c>
-      <c r="I25">
-        <v>27.3</v>
-      </c>
-      <c r="J25">
-        <v>25</v>
+        <v>94.3</v>
+      </c>
+      <c r="K25" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P25" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R25" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T25" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W25">
+        <v>8</v>
+      </c>
+      <c r="Y25">
+        <v>45959</v>
+      </c>
+      <c r="Z25">
+        <v>45959</v>
       </c>
       <c r="AC25" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v>1725</v>
+      <c r="A26">
+        <v>0</v>
       </c>
       <c r="B26" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C26" t="str">
-        <v>373c252695BVFNZUK</v>
+        <v>373C252286XJFBAJ8</v>
       </c>
       <c r="D26" t="str">
-        <v>373c252695BVFNZUK</v>
-      </c>
-      <c r="E26" t="str">
-        <v>09/10/2025</v>
+        <v>373C252286XJFBAJ8</v>
+      </c>
+      <c r="E26">
+        <v>45960</v>
       </c>
       <c r="H26">
-        <v>74.02</v>
-      </c>
-      <c r="I26">
-        <v>18.51</v>
-      </c>
-      <c r="J26">
-        <v>25.01</v>
+        <v>6.68</v>
+      </c>
+      <c r="K26" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P26" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R26" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T26" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>45959</v>
+      </c>
+      <c r="Z26">
+        <v>45959</v>
       </c>
       <c r="AC26" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
-        <v>1725</v>
+      <c r="A27">
+        <v>0</v>
       </c>
       <c r="B27" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C27" t="str">
-        <v>373c252845MBHBYTT</v>
+        <v>373C258528MQPXWXF</v>
       </c>
       <c r="D27" t="str">
-        <v>373c252845MBHBYTT</v>
-      </c>
-      <c r="E27" t="str">
-        <v>09/10/2025</v>
+        <v>373C258528MQPXWXF</v>
+      </c>
+      <c r="E27">
+        <v>45960</v>
       </c>
       <c r="H27">
-        <v>334.81</v>
-      </c>
-      <c r="I27">
-        <v>53.59</v>
-      </c>
-      <c r="J27">
-        <v>16.01</v>
+        <v>40.47</v>
+      </c>
+      <c r="K27" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P27" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R27" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T27" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>45959</v>
+      </c>
+      <c r="Z27">
+        <v>45959</v>
       </c>
       <c r="AC27" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v>1725</v>
+      <c r="A28">
+        <v>0</v>
       </c>
       <c r="B28" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C28" t="str">
-        <v>373c253243ZQCZHWN</v>
+        <v>373C252374TBFHSKK</v>
       </c>
       <c r="D28" t="str">
-        <v>373c253243ZQCZHWN</v>
-      </c>
-      <c r="E28" t="str">
-        <v>09/10/2025</v>
+        <v>373C252374TBFHSKK</v>
+      </c>
+      <c r="E28">
+        <v>45960</v>
       </c>
       <c r="H28">
-        <v>15.54</v>
-      </c>
-      <c r="I28">
-        <v>4.74</v>
-      </c>
-      <c r="J28">
-        <v>30.5</v>
+        <v>76.46</v>
+      </c>
+      <c r="K28" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P28" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R28" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T28" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>45959</v>
+      </c>
+      <c r="Z28">
+        <v>45959</v>
       </c>
       <c r="AC28" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v>1725</v>
+      <c r="A29">
+        <v>0</v>
       </c>
       <c r="B29" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C29" t="str">
-        <v>373c253369VXHCBAJ</v>
+        <v>373C252822NHCSQZ7</v>
       </c>
       <c r="D29" t="str">
-        <v>373c253369VXHCBAJ</v>
-      </c>
-      <c r="E29" t="str">
-        <v>09/10/2025</v>
+        <v>373C252822NHCSQZ7</v>
+      </c>
+      <c r="E29">
+        <v>45960</v>
       </c>
       <c r="H29">
-        <v>27.8</v>
-      </c>
-      <c r="I29">
-        <v>8.48</v>
-      </c>
-      <c r="J29">
-        <v>30.5</v>
+        <v>1279.69</v>
+      </c>
+      <c r="K29" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P29" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R29" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T29" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W29">
+        <v>9</v>
+      </c>
+      <c r="Y29">
+        <v>45959</v>
+      </c>
+      <c r="Z29">
+        <v>45959</v>
       </c>
       <c r="AC29" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
-        <v>1725</v>
+      <c r="A30">
+        <v>0</v>
       </c>
       <c r="B30" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C30" t="str">
-        <v>373c253823QRNHFT5</v>
+        <v>373C254443CRVHJZ8</v>
       </c>
       <c r="D30" t="str">
-        <v>373c253823QRNHFT5</v>
-      </c>
-      <c r="E30" t="str">
-        <v>09/10/2025</v>
+        <v>373C254443CRVHJZ8</v>
+      </c>
+      <c r="E30">
+        <v>45960</v>
       </c>
       <c r="H30">
-        <v>390.88</v>
-      </c>
-      <c r="I30">
-        <v>62.57</v>
-      </c>
-      <c r="J30">
-        <v>16.01</v>
+        <v>18.77</v>
+      </c>
+      <c r="K30" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P30" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R30" t="str">
+        <v>AN0012</v>
+      </c>
+      <c r="T30" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>45959</v>
+      </c>
+      <c r="Z30">
+        <v>45959</v>
       </c>
       <c r="AC30" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
-        <v>1725</v>
+      <c r="A31">
+        <v>0</v>
       </c>
       <c r="B31" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C31" t="str">
-        <v>373c253936ZTRUHJY</v>
+        <v>373C255855TPFCEFG</v>
       </c>
       <c r="D31" t="str">
-        <v>373c253936ZTRUHJY</v>
-      </c>
-      <c r="E31" t="str">
-        <v>09/10/2025</v>
+        <v>373C255855TPFCEFG</v>
+      </c>
+      <c r="E31">
+        <v>45960</v>
       </c>
       <c r="H31">
-        <v>261.87</v>
-      </c>
-      <c r="I31">
-        <v>146.65</v>
-      </c>
-      <c r="J31">
-        <v>56</v>
+        <v>25.59</v>
+      </c>
+      <c r="K31" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P31" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R31" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T31" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>45959</v>
+      </c>
+      <c r="Z31">
+        <v>45959</v>
       </c>
       <c r="AC31" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
-        <v>1725</v>
+      <c r="A32">
+        <v>0</v>
       </c>
       <c r="B32" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C32" t="str">
-        <v>373c254354NCWVYMP</v>
+        <v>373C255433CJWZBNY</v>
       </c>
       <c r="D32" t="str">
-        <v>373c254354NCWVYMP</v>
-      </c>
-      <c r="E32" t="str">
-        <v>09/10/2025</v>
+        <v>373C255433CJWZBNY</v>
+      </c>
+      <c r="E32">
+        <v>45960</v>
       </c>
       <c r="H32">
-        <v>73.26</v>
-      </c>
-      <c r="I32">
-        <v>18.32</v>
-      </c>
-      <c r="J32">
-        <v>25.01</v>
+        <v>40.29</v>
+      </c>
+      <c r="K32" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P32" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R32" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T32" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>45959</v>
+      </c>
+      <c r="Z32">
+        <v>45959</v>
       </c>
       <c r="AC32" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
-        <v>1725</v>
+      <c r="A33">
+        <v>0</v>
       </c>
       <c r="B33" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C33" t="str">
-        <v>373c254372EPZZBCW</v>
+        <v>373C253796PPDBGA8</v>
       </c>
       <c r="D33" t="str">
-        <v>373c254372EPZZBCW</v>
-      </c>
-      <c r="E33" t="str">
-        <v>09/10/2025</v>
+        <v>373C253796PPDBGA8</v>
+      </c>
+      <c r="E33">
+        <v>45960</v>
       </c>
       <c r="H33">
-        <v>301.26</v>
-      </c>
-      <c r="I33">
-        <v>48.22</v>
-      </c>
-      <c r="J33">
-        <v>16.01</v>
+        <v>50.72</v>
+      </c>
+      <c r="K33" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P33" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R33" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T33" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W33">
+        <v>12</v>
+      </c>
+      <c r="Y33">
+        <v>45959</v>
+      </c>
+      <c r="Z33">
+        <v>45959</v>
       </c>
       <c r="AC33" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
-        <v>1725</v>
+      <c r="A34">
+        <v>0</v>
       </c>
       <c r="B34" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C34" t="str">
-        <v>373c255247BTMQKV9</v>
+        <v>373C252242GABJZBT</v>
       </c>
       <c r="D34" t="str">
-        <v>373c255247BTMQKV9</v>
-      </c>
-      <c r="E34" t="str">
-        <v>09/10/2025</v>
+        <v>373C252242GABJZBT</v>
+      </c>
+      <c r="E34">
+        <v>45960</v>
       </c>
       <c r="H34">
-        <v>139.72</v>
-      </c>
-      <c r="I34">
-        <v>34.94</v>
-      </c>
-      <c r="J34">
-        <v>25.01</v>
+        <v>119.67</v>
+      </c>
+      <c r="K34" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P34" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R34" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T34" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W34">
+        <v>10</v>
+      </c>
+      <c r="Y34">
+        <v>45959</v>
+      </c>
+      <c r="Z34">
+        <v>45959</v>
       </c>
       <c r="AC34" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
-        <v>1725</v>
+      <c r="A35">
+        <v>0</v>
       </c>
       <c r="B35" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C35" t="str">
-        <v>373c255448BXEWHT9</v>
+        <v>373C258562KPDSQPA</v>
       </c>
       <c r="D35" t="str">
-        <v>373c255448BXEWHT9</v>
-      </c>
-      <c r="E35" t="str">
-        <v>09/10/2025</v>
+        <v>373C258562KPDSQPA</v>
+      </c>
+      <c r="E35">
+        <v>45960</v>
       </c>
       <c r="H35">
-        <v>183.9</v>
-      </c>
-      <c r="I35">
-        <v>45.98</v>
-      </c>
-      <c r="J35">
-        <v>25</v>
+        <v>189.79</v>
+      </c>
+      <c r="K35" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P35" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R35" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T35" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>45959</v>
+      </c>
+      <c r="Z35">
+        <v>45959</v>
       </c>
       <c r="AC35" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
-        <v>1725</v>
+      <c r="A36">
+        <v>0</v>
       </c>
       <c r="B36" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C36" t="str">
-        <v>373c255682WFSNCXG</v>
+        <v>373C252477JMQZQVW</v>
       </c>
       <c r="D36" t="str">
-        <v>373c255682WFSNCXG</v>
-      </c>
-      <c r="E36" t="str">
-        <v>09/10/2025</v>
+        <v>373C252477JMQZQVW</v>
+      </c>
+      <c r="E36">
+        <v>45960</v>
       </c>
       <c r="H36">
-        <v>25.37</v>
-      </c>
-      <c r="I36">
-        <v>7.74</v>
-      </c>
-      <c r="J36">
-        <v>30.51</v>
+        <v>85.58</v>
+      </c>
+      <c r="K36" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P36" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R36" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T36" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W36">
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>45959</v>
+      </c>
+      <c r="Z36">
+        <v>45959</v>
       </c>
       <c r="AC36" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
-        <v>1725</v>
+      <c r="A37">
+        <v>0</v>
       </c>
       <c r="B37" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C37" t="str">
-        <v>373c255795JKMGDFE</v>
+        <v>373C258535KFUKPUD</v>
       </c>
       <c r="D37" t="str">
-        <v>373c255795JKMGDFE</v>
-      </c>
-      <c r="E37" t="str">
-        <v>09/10/2025</v>
+        <v>373C258535KFUKPUD</v>
+      </c>
+      <c r="E37">
+        <v>45960</v>
       </c>
       <c r="H37">
-        <v>24.21</v>
-      </c>
-      <c r="I37">
-        <v>7.39</v>
-      </c>
-      <c r="J37">
-        <v>30.52</v>
+        <v>27.9</v>
+      </c>
+      <c r="K37" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P37" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R37" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T37" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W37">
+        <v>8</v>
+      </c>
+      <c r="Y37">
+        <v>45959</v>
+      </c>
+      <c r="Z37">
+        <v>45959</v>
       </c>
       <c r="AC37" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
-        <v>1725</v>
+      <c r="A38">
+        <v>0</v>
       </c>
       <c r="B38" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C38" t="str">
-        <v>373c255886BSNUTEE</v>
+        <v>373C256392UBBZFEK</v>
       </c>
       <c r="D38" t="str">
-        <v>373c255886BSNUTEE</v>
-      </c>
-      <c r="E38" t="str">
-        <v>09/10/2025</v>
+        <v>373C256392UBBZFEK</v>
+      </c>
+      <c r="E38">
+        <v>45960</v>
       </c>
       <c r="H38">
-        <v>93.84</v>
-      </c>
-      <c r="I38">
-        <v>23.46</v>
-      </c>
-      <c r="J38">
-        <v>25</v>
+        <v>278.74</v>
+      </c>
+      <c r="K38" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P38" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R38" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T38" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W38">
+        <v>8</v>
+      </c>
+      <c r="Y38">
+        <v>45959</v>
+      </c>
+      <c r="Z38">
+        <v>45959</v>
       </c>
       <c r="AC38" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
-        <v>1725</v>
+      <c r="A39">
+        <v>0</v>
       </c>
       <c r="B39" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C39" t="str">
-        <v>373c256457JVPHGQ8</v>
+        <v>373C258938ABGSFTM</v>
       </c>
       <c r="D39" t="str">
-        <v>373c256457JVPHGQ8</v>
-      </c>
-      <c r="E39" t="str">
-        <v>09/10/2025</v>
+        <v>373C258938ABGSFTM</v>
+      </c>
+      <c r="E39">
+        <v>45960</v>
       </c>
       <c r="H39">
-        <v>555.17</v>
-      </c>
-      <c r="I39">
-        <v>138.81</v>
-      </c>
-      <c r="J39">
-        <v>25</v>
+        <v>27.31</v>
+      </c>
+      <c r="K39" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P39" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R39" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T39" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W39">
+        <v>4</v>
+      </c>
+      <c r="Y39">
+        <v>45959</v>
+      </c>
+      <c r="Z39">
+        <v>45959</v>
       </c>
       <c r="AC39" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
-        <v>1725</v>
+      <c r="A40">
+        <v>0</v>
       </c>
       <c r="B40" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C40" t="str">
-        <v>373c256748VXZPNNG</v>
+        <v>373C254796EGWUDJ2</v>
       </c>
       <c r="D40" t="str">
-        <v>373c256748VXZPNNG</v>
-      </c>
-      <c r="E40" t="str">
-        <v>09/10/2025</v>
+        <v>373C254796EGWUDJ2</v>
+      </c>
+      <c r="E40">
+        <v>45960</v>
       </c>
       <c r="H40">
-        <v>174.53</v>
-      </c>
-      <c r="I40">
-        <v>97.74</v>
-      </c>
-      <c r="J40">
-        <v>56</v>
+        <v>93.19</v>
+      </c>
+      <c r="K40" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P40" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R40" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T40" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W40">
+        <v>9</v>
+      </c>
+      <c r="Y40">
+        <v>45959</v>
+      </c>
+      <c r="Z40">
+        <v>45959</v>
       </c>
       <c r="AC40" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
-        <v>1725</v>
+      <c r="A41">
+        <v>0</v>
       </c>
       <c r="B41" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C41" t="str">
-        <v>373c256956QPTQJW4</v>
+        <v>373C254592ZJSZAZ3</v>
       </c>
       <c r="D41" t="str">
-        <v>373c256956QPTQJW4</v>
-      </c>
-      <c r="E41" t="str">
-        <v>09/10/2025</v>
+        <v>373C254592ZJSZAZ3</v>
+      </c>
+      <c r="E41">
+        <v>45960</v>
       </c>
       <c r="H41">
-        <v>22.88</v>
-      </c>
-      <c r="I41">
-        <v>12.81</v>
-      </c>
-      <c r="J41">
-        <v>55.99</v>
+        <v>81.47</v>
+      </c>
+      <c r="K41" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P41" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R41" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T41" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>45959</v>
+      </c>
+      <c r="Z41">
+        <v>45959</v>
       </c>
       <c r="AC41" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
-        <v>1725</v>
+      <c r="A42">
+        <v>0</v>
       </c>
       <c r="B42" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C42" t="str">
-        <v>373c257544FQQFYJ7</v>
+        <v>373C259339KRTFQYU</v>
       </c>
       <c r="D42" t="str">
-        <v>373c257544FQQFYJ7</v>
-      </c>
-      <c r="E42" t="str">
-        <v>09/10/2025</v>
+        <v>373C259339KRTFQYU</v>
+      </c>
+      <c r="E42">
+        <v>45960</v>
       </c>
       <c r="H42">
-        <v>86.08</v>
-      </c>
-      <c r="I42">
-        <v>38.74</v>
-      </c>
-      <c r="J42">
-        <v>45</v>
+        <v>24.74</v>
+      </c>
+      <c r="K42" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P42" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R42" t="str">
+        <v>BR0020</v>
+      </c>
+      <c r="T42" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>45959</v>
+      </c>
+      <c r="Z42">
+        <v>45959</v>
       </c>
       <c r="AC42" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
-        <v>1725</v>
+      <c r="A43">
+        <v>0</v>
       </c>
       <c r="B43" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C43" t="str">
-        <v>373c257828QNJDKNZ</v>
+        <v>373C253889UEJZKCA</v>
       </c>
       <c r="D43" t="str">
-        <v>373c257828QNJDKNZ</v>
-      </c>
-      <c r="E43" t="str">
-        <v>09/10/2025</v>
+        <v>373C253889UEJZKCA</v>
+      </c>
+      <c r="E43">
+        <v>45960</v>
       </c>
       <c r="H43">
-        <v>106.47</v>
-      </c>
-      <c r="I43">
-        <v>26.62</v>
-      </c>
-      <c r="J43">
-        <v>25</v>
+        <v>362.11</v>
+      </c>
+      <c r="K43" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P43" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R43" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T43" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W43">
+        <v>15</v>
+      </c>
+      <c r="Y43">
+        <v>45959</v>
+      </c>
+      <c r="Z43">
+        <v>45959</v>
       </c>
       <c r="AC43" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
-        <v>1725</v>
+      <c r="A44">
+        <v>0</v>
       </c>
       <c r="B44" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C44" t="str">
-        <v>373c257856TTGTSR5</v>
+        <v>373C256339GMACHR8</v>
       </c>
       <c r="D44" t="str">
-        <v>373c257856TTGTSR5</v>
-      </c>
-      <c r="E44" t="str">
-        <v>09/10/2025</v>
+        <v>373C256339GMACHR8</v>
+      </c>
+      <c r="E44">
+        <v>45960</v>
       </c>
       <c r="H44">
-        <v>56.09</v>
-      </c>
-      <c r="I44">
-        <v>25.24</v>
-      </c>
-      <c r="J44">
-        <v>45</v>
+        <v>88.33</v>
+      </c>
+      <c r="K44" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P44" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R44" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T44" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W44">
+        <v>9</v>
+      </c>
+      <c r="Y44">
+        <v>45959</v>
+      </c>
+      <c r="Z44">
+        <v>45959</v>
       </c>
       <c r="AC44" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
-        <v>1725</v>
+      <c r="A45">
+        <v>0</v>
       </c>
       <c r="B45" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C45" t="str">
-        <v>373c257969AWHBFJJ</v>
+        <v>373C253327EDTQNX5</v>
       </c>
       <c r="D45" t="str">
-        <v>373c257969AWHBFJJ</v>
-      </c>
-      <c r="E45" t="str">
-        <v>09/10/2025</v>
+        <v>373C253327EDTQNX5</v>
+      </c>
+      <c r="E45">
+        <v>45960</v>
       </c>
       <c r="H45">
-        <v>179.17</v>
-      </c>
-      <c r="I45">
-        <v>28.68</v>
-      </c>
-      <c r="J45">
-        <v>16.01</v>
+        <v>69.96</v>
+      </c>
+      <c r="K45" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P45" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R45" t="str">
+        <v>AN0012</v>
+      </c>
+      <c r="T45" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>45959</v>
+      </c>
+      <c r="Z45">
+        <v>45959</v>
       </c>
       <c r="AC45" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
-        <v>1725</v>
+      <c r="A46">
+        <v>0</v>
       </c>
       <c r="B46" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C46" t="str">
-        <v>373c258395KDPRBW5</v>
+        <v>373C255695KXXFNNR</v>
       </c>
       <c r="D46" t="str">
-        <v>373c258395KDPRBW5</v>
-      </c>
-      <c r="E46" t="str">
-        <v>09/10/2025</v>
+        <v>373C255695KXXFNNR</v>
+      </c>
+      <c r="E46">
+        <v>45960</v>
       </c>
       <c r="H46">
-        <v>51.88</v>
-      </c>
-      <c r="I46">
-        <v>23.35</v>
-      </c>
-      <c r="J46">
-        <v>45.01</v>
+        <v>58.72</v>
+      </c>
+      <c r="K46" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P46" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R46" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T46" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W46">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>45959</v>
+      </c>
+      <c r="Z46">
+        <v>45959</v>
       </c>
       <c r="AC46" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
-        <v>1725</v>
+      <c r="A47">
+        <v>0</v>
       </c>
       <c r="B47" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C47" t="str">
-        <v>373c258523FMJWXJA</v>
+        <v>373C255926ZXCMWV8</v>
       </c>
       <c r="D47" t="str">
-        <v>373c258523FMJWXJA</v>
-      </c>
-      <c r="E47" t="str">
-        <v>09/10/2025</v>
+        <v>373C255926ZXCMWV8</v>
+      </c>
+      <c r="E47">
+        <v>45960</v>
       </c>
       <c r="H47">
-        <v>1429.6</v>
-      </c>
-      <c r="I47">
-        <v>357.46</v>
-      </c>
-      <c r="J47">
-        <v>25</v>
+        <v>63.12</v>
+      </c>
+      <c r="K47" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P47" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R47" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T47" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W47">
+        <v>6</v>
+      </c>
+      <c r="Y47">
+        <v>45959</v>
+      </c>
+      <c r="Z47">
+        <v>45959</v>
       </c>
       <c r="AC47" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
-        <v>1725</v>
+      <c r="A48">
+        <v>0</v>
       </c>
       <c r="B48" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C48" t="str">
-        <v>373c259845DXMRBN7</v>
+        <v>373C255383QQETTFA</v>
       </c>
       <c r="D48" t="str">
-        <v>373c259845DXMRBN7</v>
-      </c>
-      <c r="E48" t="str">
-        <v>09/10/2025</v>
+        <v>373C255383QQETTFA</v>
+      </c>
+      <c r="E48">
+        <v>45960</v>
       </c>
       <c r="H48">
-        <v>54.39</v>
-      </c>
-      <c r="I48">
-        <v>24.48</v>
-      </c>
-      <c r="J48">
-        <v>45.01</v>
+        <v>35.65</v>
+      </c>
+      <c r="K48" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P48" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R48" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T48" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W48">
+        <v>5</v>
+      </c>
+      <c r="Y48">
+        <v>45959</v>
+      </c>
+      <c r="Z48">
+        <v>45959</v>
       </c>
       <c r="AC48" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
-        <v>1725</v>
+      <c r="A49">
+        <v>0</v>
       </c>
       <c r="B49" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C49" t="str">
-        <v>373c259947BYQQYWD</v>
+        <v>373C255956WFSRGHC</v>
       </c>
       <c r="D49" t="str">
-        <v>373c259947BYQQYWD</v>
-      </c>
-      <c r="E49" t="str">
-        <v>09/10/2025</v>
+        <v>373C255956WFSRGHC</v>
+      </c>
+      <c r="E49">
+        <v>45960</v>
       </c>
       <c r="H49">
-        <v>1815.02</v>
-      </c>
-      <c r="I49">
-        <v>290.54</v>
-      </c>
-      <c r="J49">
-        <v>16.01</v>
+        <v>155.62</v>
+      </c>
+      <c r="K49" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P49" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R49" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T49" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W49">
+        <v>9</v>
+      </c>
+      <c r="Y49">
+        <v>45959</v>
+      </c>
+      <c r="Z49">
+        <v>45959</v>
       </c>
       <c r="AC49" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
-        <v>1725</v>
+      <c r="A50">
+        <v>0</v>
       </c>
       <c r="B50" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C50" t="str">
-        <v>3730244194406</v>
+        <v>373C257894NDAWDFH</v>
       </c>
       <c r="D50" t="str">
-        <v>3730244194406</v>
-      </c>
-      <c r="E50" t="str">
-        <v>09/10/2025</v>
+        <v>373C257894NDAWDFH</v>
+      </c>
+      <c r="E50">
+        <v>45960</v>
       </c>
       <c r="H50">
-        <v>1131.02</v>
-      </c>
-      <c r="I50">
-        <v>181.05</v>
-      </c>
-      <c r="J50">
-        <v>16.01</v>
+        <v>110.64</v>
+      </c>
+      <c r="K50" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P50" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R50" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T50" t="str">
+        <v>fernandacardoso181209@gmail.com</v>
+      </c>
+      <c r="W50">
+        <v>10</v>
+      </c>
+      <c r="Y50">
+        <v>45959</v>
+      </c>
+      <c r="Z50">
+        <v>45959</v>
       </c>
       <c r="AC50" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
-        <v>1725</v>
+      <c r="A51">
+        <v>0</v>
       </c>
       <c r="B51" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C51" t="str">
-        <v>3733O8FYM0257</v>
+        <v>373C257738KSWHXJT</v>
       </c>
       <c r="D51" t="str">
-        <v>3733O8FYM0257</v>
-      </c>
-      <c r="E51" t="str">
-        <v>09/10/2025</v>
+        <v>373C257738KSWHXJT</v>
+      </c>
+      <c r="E51">
+        <v>45960</v>
       </c>
       <c r="H51">
-        <v>445.24</v>
-      </c>
-      <c r="I51">
-        <v>111.33</v>
-      </c>
-      <c r="J51">
-        <v>25</v>
+        <v>61.65</v>
+      </c>
+      <c r="K51" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P51" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R51" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T51" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W51">
+        <v>7</v>
+      </c>
+      <c r="Y51">
+        <v>45959</v>
+      </c>
+      <c r="Z51">
+        <v>45959</v>
       </c>
       <c r="AC51" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
-        <v>1725</v>
+      <c r="A52">
+        <v>0</v>
       </c>
       <c r="B52" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C52" t="str">
-        <v>373FQUFST4224</v>
+        <v>373C258354VBDYKCR</v>
       </c>
       <c r="D52" t="str">
-        <v>373FQUFST4224</v>
-      </c>
-      <c r="E52" t="str">
-        <v>09/10/2025</v>
+        <v>373C258354VBDYKCR</v>
+      </c>
+      <c r="E52">
+        <v>45960</v>
       </c>
       <c r="H52">
-        <v>390.68</v>
-      </c>
-      <c r="I52">
-        <v>97.69</v>
-      </c>
-      <c r="J52">
-        <v>25.01</v>
+        <v>976.7</v>
+      </c>
+      <c r="K52" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P52" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R52" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T52" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W52">
+        <v>15</v>
+      </c>
+      <c r="Y52">
+        <v>45959</v>
+      </c>
+      <c r="Z52">
+        <v>45959</v>
       </c>
       <c r="AC52" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
-        <v>1725</v>
+      <c r="A53">
+        <v>0</v>
       </c>
       <c r="B53" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C53" t="str">
-        <v>373N55FXW7677</v>
+        <v>373C252466WWMSNU6</v>
       </c>
       <c r="D53" t="str">
-        <v>373N55FXW7677</v>
-      </c>
-      <c r="E53" t="str">
-        <v>09/10/2025</v>
+        <v>373C252466WWMSNU6</v>
+      </c>
+      <c r="E53">
+        <v>45960</v>
       </c>
       <c r="H53">
-        <v>179.4</v>
-      </c>
-      <c r="I53">
-        <v>44.86</v>
-      </c>
-      <c r="J53">
-        <v>25.01</v>
+        <v>17.38</v>
+      </c>
+      <c r="K53" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P53" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R53" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T53" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W53">
+        <v>7</v>
+      </c>
+      <c r="Y53">
+        <v>45959</v>
+      </c>
+      <c r="Z53">
+        <v>45959</v>
       </c>
       <c r="AC53" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
-        <v>1725</v>
+      <c r="A54">
+        <v>0</v>
       </c>
       <c r="B54" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C54" t="str">
-        <v>373SSSTMT9189</v>
+        <v>373C255477RYPDWKT</v>
       </c>
       <c r="D54" t="str">
-        <v>373SSSTMT9189</v>
-      </c>
-      <c r="E54" t="str">
-        <v>09/10/2025</v>
+        <v>373C255477RYPDWKT</v>
+      </c>
+      <c r="E54">
+        <v>45960</v>
       </c>
       <c r="H54">
-        <v>268.75</v>
-      </c>
-      <c r="I54">
-        <v>80.63</v>
-      </c>
-      <c r="J54">
-        <v>30</v>
+        <v>118.14</v>
+      </c>
+      <c r="K54" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P54" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R54" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T54" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W54">
+        <v>8</v>
+      </c>
+      <c r="Y54">
+        <v>45959</v>
+      </c>
+      <c r="Z54">
+        <v>45959</v>
       </c>
       <c r="AC54" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
-        <v>1725</v>
+      <c r="A55">
+        <v>0</v>
       </c>
       <c r="B55" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C55" t="str">
-        <v>373VUUKIH4850</v>
+        <v>373C256343WYEPNNK</v>
       </c>
       <c r="D55" t="str">
-        <v>373VUUKIH4850</v>
-      </c>
-      <c r="E55" t="str">
-        <v>09/10/2025</v>
+        <v>373C256343WYEPNNK</v>
+      </c>
+      <c r="E55">
+        <v>45960</v>
       </c>
       <c r="H55">
-        <v>13.93</v>
-      </c>
-      <c r="I55">
-        <v>4.25</v>
-      </c>
-      <c r="J55">
-        <v>30.51</v>
+        <v>55.15</v>
+      </c>
+      <c r="K55" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P55" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R55" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T55" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W55">
+        <v>5</v>
+      </c>
+      <c r="Y55">
+        <v>45959</v>
+      </c>
+      <c r="Z55">
+        <v>45959</v>
       </c>
       <c r="AC55" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
-        <v>1725</v>
+      <c r="A56">
+        <v>0</v>
       </c>
       <c r="B56" t="str">
         <v>V8 DIGITAL</v>
       </c>
       <c r="C56" t="str">
-        <v>373c257887QJCBQYA</v>
+        <v>373C255455ZGZZQPC</v>
       </c>
       <c r="D56" t="str">
-        <v>373c257887QJCBQYA</v>
-      </c>
-      <c r="E56" t="str">
-        <v>09/10/2025</v>
+        <v>373C255455ZGZZQPC</v>
+      </c>
+      <c r="E56">
+        <v>45960</v>
       </c>
       <c r="H56">
-        <v>10.2</v>
-      </c>
-      <c r="I56">
-        <v>4.08</v>
-      </c>
-      <c r="J56">
-        <v>40</v>
+        <v>76.76</v>
+      </c>
+      <c r="K56" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P56" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R56" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T56" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W56">
+        <v>7</v>
+      </c>
+      <c r="Y56">
+        <v>45959</v>
+      </c>
+      <c r="Z56">
+        <v>45959</v>
       </c>
       <c r="AC56" t="str">
-        <v>DIRETA</v>
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C57" t="str">
+        <v>373C259989VTRQSPP</v>
+      </c>
+      <c r="D57" t="str">
+        <v>373C259989VTRQSPP</v>
+      </c>
+      <c r="E57">
+        <v>45960</v>
+      </c>
+      <c r="H57">
+        <v>28.43</v>
+      </c>
+      <c r="K57" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P57" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R57" t="str">
+        <v>BR0020</v>
+      </c>
+      <c r="T57" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W57">
+        <v>4</v>
+      </c>
+      <c r="Y57">
+        <v>45959</v>
+      </c>
+      <c r="Z57">
+        <v>45959</v>
+      </c>
+      <c r="AC57" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C58" t="str">
+        <v>373C252858KFFWQTC</v>
+      </c>
+      <c r="D58" t="str">
+        <v>373C252858KFFWQTC</v>
+      </c>
+      <c r="E58">
+        <v>45960</v>
+      </c>
+      <c r="H58">
+        <v>177.98</v>
+      </c>
+      <c r="K58" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P58" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R58" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T58" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W58">
+        <v>8</v>
+      </c>
+      <c r="Y58">
+        <v>45959</v>
+      </c>
+      <c r="Z58">
+        <v>45959</v>
+      </c>
+      <c r="AC58" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C59" t="str">
+        <v>373C253336CTXRNXR</v>
+      </c>
+      <c r="D59" t="str">
+        <v>373C253336CTXRNXR</v>
+      </c>
+      <c r="E59">
+        <v>45960</v>
+      </c>
+      <c r="H59">
+        <v>65.86</v>
+      </c>
+      <c r="K59" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P59" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R59" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T59" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W59">
+        <v>10</v>
+      </c>
+      <c r="Y59">
+        <v>45959</v>
+      </c>
+      <c r="Z59">
+        <v>45959</v>
+      </c>
+      <c r="AC59" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C60" t="str">
+        <v>373C258384XGDRHJW</v>
+      </c>
+      <c r="D60" t="str">
+        <v>373C258384XGDRHJW</v>
+      </c>
+      <c r="E60">
+        <v>45960</v>
+      </c>
+      <c r="H60">
+        <v>80.94</v>
+      </c>
+      <c r="K60" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P60" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R60" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T60" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W60">
+        <v>5</v>
+      </c>
+      <c r="Y60">
+        <v>45959</v>
+      </c>
+      <c r="Z60">
+        <v>45959</v>
+      </c>
+      <c r="AC60" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C61" t="str">
+        <v>373C257634GNAGVED</v>
+      </c>
+      <c r="D61" t="str">
+        <v>373C257634GNAGVED</v>
+      </c>
+      <c r="E61">
+        <v>45960</v>
+      </c>
+      <c r="H61">
+        <v>49.89</v>
+      </c>
+      <c r="K61" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P61" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R61" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T61" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W61">
+        <v>6</v>
+      </c>
+      <c r="Y61">
+        <v>45959</v>
+      </c>
+      <c r="Z61">
+        <v>45959</v>
+      </c>
+      <c r="AC61" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C62" t="str">
+        <v>373C257684FTNZAUK</v>
+      </c>
+      <c r="D62" t="str">
+        <v>373C257684FTNZAUK</v>
+      </c>
+      <c r="E62">
+        <v>45960</v>
+      </c>
+      <c r="H62">
+        <v>50.32</v>
+      </c>
+      <c r="K62" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P62" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R62" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T62" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W62">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>45959</v>
+      </c>
+      <c r="Z62">
+        <v>45959</v>
+      </c>
+      <c r="AC62" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C63" t="str">
+        <v>373C258727MJSBBJH</v>
+      </c>
+      <c r="D63" t="str">
+        <v>373C258727MJSBBJH</v>
+      </c>
+      <c r="E63">
+        <v>45960</v>
+      </c>
+      <c r="H63">
+        <v>105.43</v>
+      </c>
+      <c r="K63" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P63" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R63" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T63" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W63">
+        <v>6</v>
+      </c>
+      <c r="Y63">
+        <v>45959</v>
+      </c>
+      <c r="Z63">
+        <v>45959</v>
+      </c>
+      <c r="AC63" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C64" t="str">
+        <v>373C256484ZFSVYQC</v>
+      </c>
+      <c r="D64" t="str">
+        <v>373C256484ZFSVYQC</v>
+      </c>
+      <c r="E64">
+        <v>45960</v>
+      </c>
+      <c r="H64">
+        <v>24.68</v>
+      </c>
+      <c r="K64" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P64" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R64" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T64" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W64">
+        <v>3</v>
+      </c>
+      <c r="Y64">
+        <v>45959</v>
+      </c>
+      <c r="Z64">
+        <v>45959</v>
+      </c>
+      <c r="AC64" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C65" t="str">
+        <v>373C259534KXCBKSV</v>
+      </c>
+      <c r="D65" t="str">
+        <v>373C259534KXCBKSV</v>
+      </c>
+      <c r="E65">
+        <v>45960</v>
+      </c>
+      <c r="H65">
+        <v>90.73</v>
+      </c>
+      <c r="K65" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P65" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R65" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T65" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W65">
+        <v>10</v>
+      </c>
+      <c r="Y65">
+        <v>45959</v>
+      </c>
+      <c r="Z65">
+        <v>45959</v>
+      </c>
+      <c r="AC65" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C66" t="str">
+        <v>373C254553TEYQZPZ</v>
+      </c>
+      <c r="D66" t="str">
+        <v>373C254553TEYQZPZ</v>
+      </c>
+      <c r="E66">
+        <v>45960</v>
+      </c>
+      <c r="H66">
+        <v>143.18</v>
+      </c>
+      <c r="K66" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P66" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R66" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T66" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W66">
+        <v>8</v>
+      </c>
+      <c r="Y66">
+        <v>45959</v>
+      </c>
+      <c r="Z66">
+        <v>45959</v>
+      </c>
+      <c r="AC66" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C67" t="str">
+        <v>373C253456DXCVCSY</v>
+      </c>
+      <c r="D67" t="str">
+        <v>373C253456DXCVCSY</v>
+      </c>
+      <c r="E67">
+        <v>45960</v>
+      </c>
+      <c r="H67">
+        <v>29.83</v>
+      </c>
+      <c r="K67" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P67" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R67" t="str">
+        <v>AN0012</v>
+      </c>
+      <c r="T67" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W67">
+        <v>4</v>
+      </c>
+      <c r="Y67">
+        <v>45959</v>
+      </c>
+      <c r="Z67">
+        <v>45959</v>
+      </c>
+      <c r="AC67" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C68" t="str">
+        <v>373C253487XGREUMG</v>
+      </c>
+      <c r="D68" t="str">
+        <v>373C253487XGREUMG</v>
+      </c>
+      <c r="E68">
+        <v>45960</v>
+      </c>
+      <c r="H68">
+        <v>56.25</v>
+      </c>
+      <c r="K68" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P68" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R68" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T68" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W68">
+        <v>4</v>
+      </c>
+      <c r="Y68">
+        <v>45959</v>
+      </c>
+      <c r="Z68">
+        <v>45959</v>
+      </c>
+      <c r="AC68" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C69" t="str">
+        <v>373C257823URYYMYP</v>
+      </c>
+      <c r="D69" t="str">
+        <v>373C257823URYYMYP</v>
+      </c>
+      <c r="E69">
+        <v>45960</v>
+      </c>
+      <c r="H69">
+        <v>106.94</v>
+      </c>
+      <c r="K69" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P69" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R69" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T69" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W69">
+        <v>4</v>
+      </c>
+      <c r="Y69">
+        <v>45959</v>
+      </c>
+      <c r="Z69">
+        <v>45959</v>
+      </c>
+      <c r="AC69" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C70" t="str">
+        <v>373C259288BUXDGP7</v>
+      </c>
+      <c r="D70" t="str">
+        <v>373C259288BUXDGP7</v>
+      </c>
+      <c r="E70">
+        <v>45960</v>
+      </c>
+      <c r="H70">
+        <v>12.12</v>
+      </c>
+      <c r="K70" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P70" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R70" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T70" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W70">
+        <v>2</v>
+      </c>
+      <c r="Y70">
+        <v>45959</v>
+      </c>
+      <c r="Z70">
+        <v>45959</v>
+      </c>
+      <c r="AC70" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C71" t="str">
+        <v>373C256962YWSMRDW</v>
+      </c>
+      <c r="D71" t="str">
+        <v>373C256962YWSMRDW</v>
+      </c>
+      <c r="E71">
+        <v>45960</v>
+      </c>
+      <c r="H71">
+        <v>63.88</v>
+      </c>
+      <c r="K71" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P71" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R71" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T71" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W71">
+        <v>5</v>
+      </c>
+      <c r="Y71">
+        <v>45959</v>
+      </c>
+      <c r="Z71">
+        <v>45959</v>
+      </c>
+      <c r="AC71" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C72" t="str">
+        <v>373C255227VECAKN9</v>
+      </c>
+      <c r="D72" t="str">
+        <v>373C255227VECAKN9</v>
+      </c>
+      <c r="E72">
+        <v>45960</v>
+      </c>
+      <c r="H72">
+        <v>31.18</v>
+      </c>
+      <c r="K72" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P72" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R72" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T72" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W72">
+        <v>5</v>
+      </c>
+      <c r="Y72">
+        <v>45959</v>
+      </c>
+      <c r="Z72">
+        <v>45959</v>
+      </c>
+      <c r="AC72" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C73" t="str">
+        <v>373C256665GMGEPWW</v>
+      </c>
+      <c r="D73" t="str">
+        <v>373C256665GMGEPWW</v>
+      </c>
+      <c r="E73">
+        <v>45960</v>
+      </c>
+      <c r="H73">
+        <v>63.37</v>
+      </c>
+      <c r="K73" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P73" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R73" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T73" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W73">
+        <v>6</v>
+      </c>
+      <c r="Y73">
+        <v>45959</v>
+      </c>
+      <c r="Z73">
+        <v>45959</v>
+      </c>
+      <c r="AC73" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C74" t="str">
+        <v>373C258369KTETYNU</v>
+      </c>
+      <c r="D74" t="str">
+        <v>373C258369KTETYNU</v>
+      </c>
+      <c r="E74">
+        <v>45960</v>
+      </c>
+      <c r="H74">
+        <v>139.17</v>
+      </c>
+      <c r="K74" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P74" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R74" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T74" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W74">
+        <v>7</v>
+      </c>
+      <c r="Y74">
+        <v>45959</v>
+      </c>
+      <c r="Z74">
+        <v>45959</v>
+      </c>
+      <c r="AC74" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C75" t="str">
+        <v>373C255795FTSYDVV</v>
+      </c>
+      <c r="D75" t="str">
+        <v>373C255795FTSYDVV</v>
+      </c>
+      <c r="E75">
+        <v>45960</v>
+      </c>
+      <c r="H75">
+        <v>269.75</v>
+      </c>
+      <c r="K75" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P75" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R75" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T75" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W75">
+        <v>9</v>
+      </c>
+      <c r="Y75">
+        <v>45959</v>
+      </c>
+      <c r="Z75">
+        <v>45959</v>
+      </c>
+      <c r="AC75" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C76" t="str">
+        <v>373C259986YFQRPDR</v>
+      </c>
+      <c r="D76" t="str">
+        <v>373C259986YFQRPDR</v>
+      </c>
+      <c r="E76">
+        <v>45960</v>
+      </c>
+      <c r="H76">
+        <v>78.17</v>
+      </c>
+      <c r="K76" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P76" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R76" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T76" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W76">
+        <v>10</v>
+      </c>
+      <c r="Y76">
+        <v>45959</v>
+      </c>
+      <c r="Z76">
+        <v>45959</v>
+      </c>
+      <c r="AC76" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C77" t="str">
+        <v>373C258997SWGJNTZ</v>
+      </c>
+      <c r="D77" t="str">
+        <v>373C258997SWGJNTZ</v>
+      </c>
+      <c r="E77">
+        <v>45960</v>
+      </c>
+      <c r="H77">
+        <v>213.31</v>
+      </c>
+      <c r="K77" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P77" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R77" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T77" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W77">
+        <v>15</v>
+      </c>
+      <c r="Y77">
+        <v>45959</v>
+      </c>
+      <c r="Z77">
+        <v>45959</v>
+      </c>
+      <c r="AC77" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C78" t="str">
+        <v>373C258789DSJEWD3</v>
+      </c>
+      <c r="D78" t="str">
+        <v>373C258789DSJEWD3</v>
+      </c>
+      <c r="E78">
+        <v>45960</v>
+      </c>
+      <c r="H78">
+        <v>49.83</v>
+      </c>
+      <c r="K78" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P78" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R78" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T78" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W78">
+        <v>6</v>
+      </c>
+      <c r="Y78">
+        <v>45959</v>
+      </c>
+      <c r="Z78">
+        <v>45959</v>
+      </c>
+      <c r="AC78" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C79" t="str">
+        <v>373C255679SMHAWAX</v>
+      </c>
+      <c r="D79" t="str">
+        <v>373C255679SMHAWAX</v>
+      </c>
+      <c r="E79">
+        <v>45960</v>
+      </c>
+      <c r="H79">
+        <v>117.85</v>
+      </c>
+      <c r="K79" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P79" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R79" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T79" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W79">
+        <v>15</v>
+      </c>
+      <c r="Y79">
+        <v>45959</v>
+      </c>
+      <c r="Z79">
+        <v>45959</v>
+      </c>
+      <c r="AC79" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C80" t="str">
+        <v>373C259883QZBKZAH</v>
+      </c>
+      <c r="D80" t="str">
+        <v>373C259883QZBKZAH</v>
+      </c>
+      <c r="E80">
+        <v>45960</v>
+      </c>
+      <c r="H80">
+        <v>24.3</v>
+      </c>
+      <c r="K80" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P80" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R80" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T80" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W80">
+        <v>5</v>
+      </c>
+      <c r="Y80">
+        <v>45959</v>
+      </c>
+      <c r="Z80">
+        <v>45959</v>
+      </c>
+      <c r="AC80" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C81" t="str">
+        <v>373C254498JNBYQYR</v>
+      </c>
+      <c r="D81" t="str">
+        <v>373C254498JNBYQYR</v>
+      </c>
+      <c r="E81">
+        <v>45960</v>
+      </c>
+      <c r="H81">
+        <v>76.98</v>
+      </c>
+      <c r="K81" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P81" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R81" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T81" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W81">
+        <v>7</v>
+      </c>
+      <c r="Y81">
+        <v>45959</v>
+      </c>
+      <c r="Z81">
+        <v>45959</v>
+      </c>
+      <c r="AC81" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C82" t="str">
+        <v>373C257257XNJDRDZ</v>
+      </c>
+      <c r="D82" t="str">
+        <v>373C257257XNJDRDZ</v>
+      </c>
+      <c r="E82">
+        <v>45960</v>
+      </c>
+      <c r="H82">
+        <v>124.15</v>
+      </c>
+      <c r="K82" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P82" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R82" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T82" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W82">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <v>45959</v>
+      </c>
+      <c r="Z82">
+        <v>45959</v>
+      </c>
+      <c r="AC82" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C83" t="str">
+        <v>373C255765DBSNFA6</v>
+      </c>
+      <c r="D83" t="str">
+        <v>373C255765DBSNFA6</v>
+      </c>
+      <c r="E83">
+        <v>45960</v>
+      </c>
+      <c r="H83">
+        <v>114.98</v>
+      </c>
+      <c r="K83" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P83" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R83" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T83" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W83">
+        <v>11</v>
+      </c>
+      <c r="Y83">
+        <v>45959</v>
+      </c>
+      <c r="Z83">
+        <v>45959</v>
+      </c>
+      <c r="AC83" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C84" t="str">
+        <v>373C253246GKJGMRJ</v>
+      </c>
+      <c r="D84" t="str">
+        <v>373C253246GKJGMRJ</v>
+      </c>
+      <c r="E84">
+        <v>45960</v>
+      </c>
+      <c r="H84">
+        <v>14.16</v>
+      </c>
+      <c r="K84" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P84" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R84" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T84" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W84">
+        <v>4</v>
+      </c>
+      <c r="Y84">
+        <v>45959</v>
+      </c>
+      <c r="Z84">
+        <v>45959</v>
+      </c>
+      <c r="AC84" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C85" t="str">
+        <v>373C256259MKYEMAU</v>
+      </c>
+      <c r="D85" t="str">
+        <v>373C256259MKYEMAU</v>
+      </c>
+      <c r="E85">
+        <v>45960</v>
+      </c>
+      <c r="H85">
+        <v>65.08</v>
+      </c>
+      <c r="K85" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P85" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R85" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T85" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>45959</v>
+      </c>
+      <c r="Z85">
+        <v>45959</v>
+      </c>
+      <c r="AC85" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C86" t="str">
+        <v>373C255774TCDKQY9</v>
+      </c>
+      <c r="D86" t="str">
+        <v>373C255774TCDKQY9</v>
+      </c>
+      <c r="E86">
+        <v>45960</v>
+      </c>
+      <c r="H86">
+        <v>418.8</v>
+      </c>
+      <c r="K86" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P86" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R86" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T86" t="str">
+        <v>mogiana.credito@gmail.com</v>
+      </c>
+      <c r="W86">
+        <v>15</v>
+      </c>
+      <c r="Y86">
+        <v>45959</v>
+      </c>
+      <c r="Z86">
+        <v>45959</v>
+      </c>
+      <c r="AC86" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C87" t="str">
+        <v>373C253923FUYUUR4</v>
+      </c>
+      <c r="D87" t="str">
+        <v>373C253923FUYUUR4</v>
+      </c>
+      <c r="E87">
+        <v>45960</v>
+      </c>
+      <c r="H87">
+        <v>59.61</v>
+      </c>
+      <c r="K87" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P87" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R87" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T87" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W87">
+        <v>7</v>
+      </c>
+      <c r="Y87">
+        <v>45959</v>
+      </c>
+      <c r="Z87">
+        <v>45959</v>
+      </c>
+      <c r="AC87" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C88" t="str">
+        <v>373C253872SFMFMJR</v>
+      </c>
+      <c r="D88" t="str">
+        <v>373C253872SFMFMJR</v>
+      </c>
+      <c r="E88">
+        <v>45960</v>
+      </c>
+      <c r="H88">
+        <v>99.79</v>
+      </c>
+      <c r="K88" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P88" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R88" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T88" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W88">
+        <v>11</v>
+      </c>
+      <c r="Y88">
+        <v>45959</v>
+      </c>
+      <c r="Z88">
+        <v>45959</v>
+      </c>
+      <c r="AC88" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C89" t="str">
+        <v>373C256954TTRQEAB</v>
+      </c>
+      <c r="D89" t="str">
+        <v>373C256954TTRQEAB</v>
+      </c>
+      <c r="E89">
+        <v>45960</v>
+      </c>
+      <c r="H89">
+        <v>5.06</v>
+      </c>
+      <c r="K89" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P89" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R89" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T89" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W89">
+        <v>2</v>
+      </c>
+      <c r="Y89">
+        <v>45959</v>
+      </c>
+      <c r="Z89">
+        <v>45959</v>
+      </c>
+      <c r="AC89" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C90" t="str">
+        <v>373C257977PRKUSDS</v>
+      </c>
+      <c r="D90" t="str">
+        <v>373C257977PRKUSDS</v>
+      </c>
+      <c r="E90">
+        <v>45960</v>
+      </c>
+      <c r="H90">
+        <v>22.93</v>
+      </c>
+      <c r="K90" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P90" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R90" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T90" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W90">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>45959</v>
+      </c>
+      <c r="Z90">
+        <v>45959</v>
+      </c>
+      <c r="AC90" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C91" t="str">
+        <v>373C257579YBXKVNZ</v>
+      </c>
+      <c r="D91" t="str">
+        <v>373C257579YBXKVNZ</v>
+      </c>
+      <c r="E91">
+        <v>45960</v>
+      </c>
+      <c r="H91">
+        <v>61.95</v>
+      </c>
+      <c r="K91" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P91" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R91" t="str">
+        <v>BR0033</v>
+      </c>
+      <c r="T91" t="str">
+        <v>jeangrando91@gmail.com</v>
+      </c>
+      <c r="W91">
+        <v>5</v>
+      </c>
+      <c r="Y91">
+        <v>45959</v>
+      </c>
+      <c r="Z91">
+        <v>45959</v>
+      </c>
+      <c r="AC91" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C92" t="str">
+        <v>373C254248KKDWMMY</v>
+      </c>
+      <c r="D92" t="str">
+        <v>373C254248KKDWMMY</v>
+      </c>
+      <c r="E92">
+        <v>45960</v>
+      </c>
+      <c r="H92">
+        <v>75.41</v>
+      </c>
+      <c r="K92" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P92" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R92" t="str">
+        <v>BR0036</v>
+      </c>
+      <c r="T92" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W92">
+        <v>10</v>
+      </c>
+      <c r="Y92">
+        <v>45959</v>
+      </c>
+      <c r="Z92">
+        <v>45959</v>
+      </c>
+      <c r="AC92" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C93" t="str">
+        <v>373C259889JZCHWTY</v>
+      </c>
+      <c r="D93" t="str">
+        <v>373C259889JZCHWTY</v>
+      </c>
+      <c r="E93">
+        <v>45960</v>
+      </c>
+      <c r="H93">
+        <v>1134.81</v>
+      </c>
+      <c r="K93" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P93" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R93" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T93" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W93">
+        <v>7</v>
+      </c>
+      <c r="Y93">
+        <v>45959</v>
+      </c>
+      <c r="Z93">
+        <v>45959</v>
+      </c>
+      <c r="AC93" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C94" t="str">
+        <v>373C253652ESAYHKP</v>
+      </c>
+      <c r="D94" t="str">
+        <v>373C253652ESAYHKP</v>
+      </c>
+      <c r="E94">
+        <v>45960</v>
+      </c>
+      <c r="H94">
+        <v>27.35</v>
+      </c>
+      <c r="K94" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P94" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R94" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T94" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W94">
+        <v>2</v>
+      </c>
+      <c r="Y94">
+        <v>45959</v>
+      </c>
+      <c r="Z94">
+        <v>45959</v>
+      </c>
+      <c r="AC94" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C95" t="str">
+        <v>373C256448AZHQYNK</v>
+      </c>
+      <c r="D95" t="str">
+        <v>373C256448AZHQYNK</v>
+      </c>
+      <c r="E95">
+        <v>45960</v>
+      </c>
+      <c r="H95">
+        <v>135.24</v>
+      </c>
+      <c r="K95" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P95" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R95" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T95" t="str">
+        <v>adalbertof1969@gmail.com</v>
+      </c>
+      <c r="W95">
+        <v>8</v>
+      </c>
+      <c r="Y95">
+        <v>45959</v>
+      </c>
+      <c r="Z95">
+        <v>45959</v>
+      </c>
+      <c r="AC95" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C96" t="str">
+        <v>373C254833KSWKFJ4</v>
+      </c>
+      <c r="D96" t="str">
+        <v>373C254833KSWKFJ4</v>
+      </c>
+      <c r="E96">
+        <v>45960</v>
+      </c>
+      <c r="H96">
+        <v>115.06</v>
+      </c>
+      <c r="K96" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P96" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R96" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T96" t="str">
+        <v>adalbertof1969@gmail.com</v>
+      </c>
+      <c r="W96">
+        <v>6</v>
+      </c>
+      <c r="Y96">
+        <v>45959</v>
+      </c>
+      <c r="Z96">
+        <v>45959</v>
+      </c>
+      <c r="AC96" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C97" t="str">
+        <v>373C253766YWZQUJK</v>
+      </c>
+      <c r="D97" t="str">
+        <v>373C253766YWZQUJK</v>
+      </c>
+      <c r="E97">
+        <v>45960</v>
+      </c>
+      <c r="H97">
+        <v>28.44</v>
+      </c>
+      <c r="K97" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P97" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R97" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T97" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W97">
+        <v>3</v>
+      </c>
+      <c r="Y97">
+        <v>45959</v>
+      </c>
+      <c r="Z97">
+        <v>45959</v>
+      </c>
+      <c r="AC97" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C98" t="str">
+        <v>373C258876RHMTQMR</v>
+      </c>
+      <c r="D98" t="str">
+        <v>373C258876RHMTQMR</v>
+      </c>
+      <c r="E98">
+        <v>45960</v>
+      </c>
+      <c r="H98">
+        <v>100.06</v>
+      </c>
+      <c r="K98" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P98" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R98" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T98" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W98">
+        <v>8</v>
+      </c>
+      <c r="Y98">
+        <v>45959</v>
+      </c>
+      <c r="Z98">
+        <v>45959</v>
+      </c>
+      <c r="AC98" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C99" t="str">
+        <v>373C256245DFRXSAT</v>
+      </c>
+      <c r="D99" t="str">
+        <v>373C256245DFRXSAT</v>
+      </c>
+      <c r="E99">
+        <v>45960</v>
+      </c>
+      <c r="H99">
+        <v>70.54</v>
+      </c>
+      <c r="K99" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P99" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R99" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T99" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W99">
+        <v>5</v>
+      </c>
+      <c r="Y99">
+        <v>45959</v>
+      </c>
+      <c r="Z99">
+        <v>45959</v>
+      </c>
+      <c r="AC99" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C100" t="str">
+        <v>373C259682PMNKVFD</v>
+      </c>
+      <c r="D100" t="str">
+        <v>373C259682PMNKVFD</v>
+      </c>
+      <c r="E100">
+        <v>45960</v>
+      </c>
+      <c r="H100">
+        <v>152.5</v>
+      </c>
+      <c r="K100" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P100" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R100" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T100" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W100">
+        <v>9</v>
+      </c>
+      <c r="Y100">
+        <v>45959</v>
+      </c>
+      <c r="Z100">
+        <v>45959</v>
+      </c>
+      <c r="AC100" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C101" t="str">
+        <v>373C259769XCQTBWT</v>
+      </c>
+      <c r="D101" t="str">
+        <v>373C259769XCQTBWT</v>
+      </c>
+      <c r="E101">
+        <v>45960</v>
+      </c>
+      <c r="H101">
+        <v>124.46</v>
+      </c>
+      <c r="K101" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P101" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R101" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T101" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W101">
+        <v>10</v>
+      </c>
+      <c r="Y101">
+        <v>45959</v>
+      </c>
+      <c r="Z101">
+        <v>45959</v>
+      </c>
+      <c r="AC101" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C102" t="str">
+        <v>373C257473UFKSUXX</v>
+      </c>
+      <c r="D102" t="str">
+        <v>373C257473UFKSUXX</v>
+      </c>
+      <c r="E102">
+        <v>45960</v>
+      </c>
+      <c r="H102">
+        <v>54.61</v>
+      </c>
+      <c r="K102" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P102" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R102" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T102" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W102">
+        <v>3</v>
+      </c>
+      <c r="Y102">
+        <v>45959</v>
+      </c>
+      <c r="Z102">
+        <v>45959</v>
+      </c>
+      <c r="AC102" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C103" t="str">
+        <v>373C258795CGGWZKC</v>
+      </c>
+      <c r="D103" t="str">
+        <v>373C258795CGGWZKC</v>
+      </c>
+      <c r="E103">
+        <v>45960</v>
+      </c>
+      <c r="H103">
+        <v>158.73</v>
+      </c>
+      <c r="K103" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P103" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R103" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T103" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W103">
+        <v>8</v>
+      </c>
+      <c r="Y103">
+        <v>45959</v>
+      </c>
+      <c r="Z103">
+        <v>45959</v>
+      </c>
+      <c r="AC103" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C104" t="str">
+        <v>373C255234XKBAAHX</v>
+      </c>
+      <c r="D104" t="str">
+        <v>373C255234XKBAAHX</v>
+      </c>
+      <c r="E104">
+        <v>45960</v>
+      </c>
+      <c r="H104">
+        <v>89.32</v>
+      </c>
+      <c r="K104" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P104" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R104" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T104" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W104">
+        <v>5</v>
+      </c>
+      <c r="Y104">
+        <v>45959</v>
+      </c>
+      <c r="Z104">
+        <v>45959</v>
+      </c>
+      <c r="AC104" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C105" t="str">
+        <v>373C252787QPECMZA</v>
+      </c>
+      <c r="D105" t="str">
+        <v>373C252787QPECMZA</v>
+      </c>
+      <c r="E105">
+        <v>45960</v>
+      </c>
+      <c r="H105">
+        <v>150.34</v>
+      </c>
+      <c r="K105" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P105" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R105" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T105" t="str">
+        <v>sol.vulcao1@gmail.com</v>
+      </c>
+      <c r="W105">
+        <v>5</v>
+      </c>
+      <c r="Y105">
+        <v>45959</v>
+      </c>
+      <c r="Z105">
+        <v>45959</v>
+      </c>
+      <c r="AC105" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C106" t="str">
+        <v>373C255287ESHCST2</v>
+      </c>
+      <c r="D106" t="str">
+        <v>373C255287ESHCST2</v>
+      </c>
+      <c r="E106">
+        <v>45960</v>
+      </c>
+      <c r="H106">
+        <v>488.18</v>
+      </c>
+      <c r="K106" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P106" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R106" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T106" t="str">
+        <v>mogiana.credito@gmail.com</v>
+      </c>
+      <c r="W106">
+        <v>10</v>
+      </c>
+      <c r="Y106">
+        <v>45959</v>
+      </c>
+      <c r="Z106">
+        <v>45959</v>
+      </c>
+      <c r="AC106" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C107" t="str">
+        <v>373C252464FZXFVB8</v>
+      </c>
+      <c r="D107" t="str">
+        <v>373C252464FZXFVB8</v>
+      </c>
+      <c r="E107">
+        <v>45960</v>
+      </c>
+      <c r="H107">
+        <v>59.18</v>
+      </c>
+      <c r="K107" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P107" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R107" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T107" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W107">
+        <v>6</v>
+      </c>
+      <c r="Y107">
+        <v>45959</v>
+      </c>
+      <c r="Z107">
+        <v>45959</v>
+      </c>
+      <c r="AC107" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C108" t="str">
+        <v>373C252296AKHSBMA</v>
+      </c>
+      <c r="D108" t="str">
+        <v>373C252296AKHSBMA</v>
+      </c>
+      <c r="E108">
+        <v>45960</v>
+      </c>
+      <c r="H108">
+        <v>31.18</v>
+      </c>
+      <c r="K108" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P108" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R108" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T108" t="str">
+        <v>juliana.muller@sejaditto.com.br</v>
+      </c>
+      <c r="W108">
+        <v>5</v>
+      </c>
+      <c r="Y108">
+        <v>45959</v>
+      </c>
+      <c r="Z108">
+        <v>45959</v>
+      </c>
+      <c r="AC108" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C109" t="str">
+        <v>373C254448AZJJFDE</v>
+      </c>
+      <c r="D109" t="str">
+        <v>373C254448AZJJFDE</v>
+      </c>
+      <c r="E109">
+        <v>45960</v>
+      </c>
+      <c r="H109">
+        <v>41.41</v>
+      </c>
+      <c r="K109" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P109" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R109" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T109" t="str">
+        <v>mktassessoriadigital@gmail.com</v>
+      </c>
+      <c r="W109">
+        <v>4</v>
+      </c>
+      <c r="Y109">
+        <v>45959</v>
+      </c>
+      <c r="Z109">
+        <v>45959</v>
+      </c>
+      <c r="AC109" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C110" t="str">
+        <v>MAG7362846238</v>
+      </c>
+      <c r="D110" t="str">
+        <v>MAG7362846238</v>
+      </c>
+      <c r="E110">
+        <v>45960</v>
+      </c>
+      <c r="H110">
+        <v>6755.4</v>
+      </c>
+      <c r="K110" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P110" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R110" t="str">
+        <v>CP0003</v>
+      </c>
+      <c r="T110" t="str">
+        <v>denisepaes4@hotmail.com</v>
+      </c>
+      <c r="W110">
+        <v>24</v>
+      </c>
+      <c r="Y110">
+        <v>45959</v>
+      </c>
+      <c r="Z110">
+        <v>45959</v>
+      </c>
+      <c r="AC110" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C111" t="str">
+        <v>MAG9023987710</v>
+      </c>
+      <c r="D111" t="str">
+        <v>MAG9023987710</v>
+      </c>
+      <c r="E111">
+        <v>45960</v>
+      </c>
+      <c r="H111">
+        <v>2898.86</v>
+      </c>
+      <c r="K111" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P111" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R111" t="str">
+        <v>CP0003</v>
+      </c>
+      <c r="T111" t="str">
+        <v>wdanielafonseca@hotmail.com</v>
+      </c>
+      <c r="W111">
+        <v>24</v>
+      </c>
+      <c r="Y111">
+        <v>45959</v>
+      </c>
+      <c r="Z111">
+        <v>45959</v>
+      </c>
+      <c r="AC111" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C112" t="str">
+        <v>MAG3600141811</v>
+      </c>
+      <c r="D112" t="str">
+        <v>MAG3600141811</v>
+      </c>
+      <c r="E112">
+        <v>45960</v>
+      </c>
+      <c r="H112">
+        <v>955.27</v>
+      </c>
+      <c r="K112" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P112" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R112" t="str">
+        <v>CP0003</v>
+      </c>
+      <c r="T112" t="str">
+        <v>laurina.teixeira@sou.fcr.edu.br</v>
+      </c>
+      <c r="W112">
+        <v>12</v>
+      </c>
+      <c r="Y112">
+        <v>45959</v>
+      </c>
+      <c r="Z112">
+        <v>45959</v>
+      </c>
+      <c r="AC112" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C113" t="str">
+        <v>MAG5099022966</v>
+      </c>
+      <c r="D113" t="str">
+        <v>MAG5099022966</v>
+      </c>
+      <c r="E113">
+        <v>45960</v>
+      </c>
+      <c r="H113">
+        <v>5010.31</v>
+      </c>
+      <c r="K113" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P113" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R113" t="str">
+        <v>CP0003</v>
+      </c>
+      <c r="T113" t="str">
+        <v>denisepaes4@hotmail.com</v>
+      </c>
+      <c r="W113">
+        <v>12</v>
+      </c>
+      <c r="Y113">
+        <v>45959</v>
+      </c>
+      <c r="Z113">
+        <v>45959</v>
+      </c>
+      <c r="AC113" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C114" t="str">
+        <v>MAG8558515638</v>
+      </c>
+      <c r="D114" t="str">
+        <v>MAG8558515638</v>
+      </c>
+      <c r="E114">
+        <v>45960</v>
+      </c>
+      <c r="H114">
+        <v>3236.68</v>
+      </c>
+      <c r="K114" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P114" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R114" t="str">
+        <v>CP0003</v>
+      </c>
+      <c r="T114" t="str">
+        <v>anacarolinab1976@gmail.com</v>
+      </c>
+      <c r="W114">
+        <v>18</v>
+      </c>
+      <c r="Y114">
+        <v>45959</v>
+      </c>
+      <c r="Z114">
+        <v>45959</v>
+      </c>
+      <c r="AC114" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C115" t="str">
+        <v>MAG2967994094</v>
+      </c>
+      <c r="D115" t="str">
+        <v>MAG2967994094</v>
+      </c>
+      <c r="E115">
+        <v>45960</v>
+      </c>
+      <c r="H115">
+        <v>2290.84</v>
+      </c>
+      <c r="K115" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P115" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R115" t="str">
+        <v>CP0003</v>
+      </c>
+      <c r="T115" t="str">
+        <v>monalisa.amparo@gmail.com</v>
+      </c>
+      <c r="W115">
+        <v>24</v>
+      </c>
+      <c r="Y115">
+        <v>45959</v>
+      </c>
+      <c r="Z115">
+        <v>45959</v>
+      </c>
+      <c r="AC115" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C116" t="str">
+        <v>MAG1558747105</v>
+      </c>
+      <c r="D116" t="str">
+        <v>MAG1558747105</v>
+      </c>
+      <c r="E116">
+        <v>45960</v>
+      </c>
+      <c r="H116">
+        <v>2191.2</v>
+      </c>
+      <c r="K116" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P116" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R116" t="str">
+        <v>CP0003</v>
+      </c>
+      <c r="T116" t="str">
+        <v>laurina.teixeira@sou.fcr.edu.br</v>
+      </c>
+      <c r="W116">
+        <v>12</v>
+      </c>
+      <c r="Y116">
+        <v>45959</v>
+      </c>
+      <c r="Z116">
+        <v>45959</v>
+      </c>
+      <c r="AC116" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C117" t="str">
+        <v>MAG2080412747</v>
+      </c>
+      <c r="D117" t="str">
+        <v>MAG2080412747</v>
+      </c>
+      <c r="E117">
+        <v>45960</v>
+      </c>
+      <c r="H117">
+        <v>1904.61</v>
+      </c>
+      <c r="K117" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P117" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R117" t="str">
+        <v>CP0003</v>
+      </c>
+      <c r="T117" t="str">
+        <v>masouza07@hotmail.com</v>
+      </c>
+      <c r="W117">
+        <v>24</v>
+      </c>
+      <c r="Y117">
+        <v>45957</v>
+      </c>
+      <c r="Z117">
+        <v>45959</v>
+      </c>
+      <c r="AC117" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C118" t="str">
+        <v>MAG1481662104</v>
+      </c>
+      <c r="D118" t="str">
+        <v>MAG1481662104</v>
+      </c>
+      <c r="E118">
+        <v>45960</v>
+      </c>
+      <c r="H118">
+        <v>851.98</v>
+      </c>
+      <c r="K118" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P118" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R118" t="str">
+        <v>CP0002</v>
+      </c>
+      <c r="T118" t="str">
+        <v>dilmaraconsultorafinanceira@gmail.com</v>
+      </c>
+      <c r="W118">
+        <v>12</v>
+      </c>
+      <c r="Y118">
+        <v>45959</v>
+      </c>
+      <c r="Z118">
+        <v>45959</v>
+      </c>
+      <c r="AC118" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C119" t="str">
+        <v>MAG3557866050</v>
+      </c>
+      <c r="D119" t="str">
+        <v>MAG3557866050</v>
+      </c>
+      <c r="E119">
+        <v>45960</v>
+      </c>
+      <c r="H119">
+        <v>3504.21</v>
+      </c>
+      <c r="K119" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P119" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R119" t="str">
+        <v>CP0002</v>
+      </c>
+      <c r="T119" t="str">
+        <v>alvaroprjr@gmail.com</v>
+      </c>
+      <c r="W119">
+        <v>24</v>
+      </c>
+      <c r="Y119">
+        <v>45959</v>
+      </c>
+      <c r="Z119">
+        <v>45959</v>
+      </c>
+      <c r="AC119" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C120">
+        <v>602091291</v>
+      </c>
+      <c r="D120">
+        <v>602091291</v>
+      </c>
+      <c r="E120">
+        <v>45960</v>
+      </c>
+      <c r="H120">
+        <v>6458.96</v>
+      </c>
+      <c r="K120" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P120" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="T120" t="str">
+        <v>42291645803_900087</v>
+      </c>
+      <c r="W120">
+        <v>96</v>
+      </c>
+      <c r="Y120">
+        <v>45954</v>
+      </c>
+      <c r="Z120">
+        <v>45958</v>
+      </c>
+      <c r="AC120" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C121">
+        <v>602091345</v>
+      </c>
+      <c r="D121">
+        <v>602091345</v>
+      </c>
+      <c r="E121">
+        <v>45960</v>
+      </c>
+      <c r="H121">
+        <v>6458.96</v>
+      </c>
+      <c r="K121" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P121" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="T121" t="str">
+        <v>42291645803_900087</v>
+      </c>
+      <c r="W121">
+        <v>96</v>
+      </c>
+      <c r="Y121">
+        <v>45954</v>
+      </c>
+      <c r="Z121">
+        <v>45958</v>
+      </c>
+      <c r="AC121" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C122">
+        <v>602092464</v>
+      </c>
+      <c r="D122">
+        <v>602092464</v>
+      </c>
+      <c r="E122">
+        <v>45960</v>
+      </c>
+      <c r="H122">
+        <v>7910.69</v>
+      </c>
+      <c r="K122" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P122" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="T122" t="str">
+        <v>06929034533_900087</v>
+      </c>
+      <c r="W122">
+        <v>96</v>
+      </c>
+      <c r="Y122">
+        <v>45954</v>
+      </c>
+      <c r="Z122">
+        <v>45958</v>
+      </c>
+      <c r="AC122" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C123">
+        <v>602095322</v>
+      </c>
+      <c r="D123">
+        <v>602095322</v>
+      </c>
+      <c r="E123">
+        <v>45960</v>
+      </c>
+      <c r="H123">
+        <v>6626.67</v>
+      </c>
+      <c r="K123" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P123" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="T123" t="str">
+        <v>42291645803_900087</v>
+      </c>
+      <c r="W123">
+        <v>96</v>
+      </c>
+      <c r="Y123">
+        <v>45957</v>
+      </c>
+      <c r="Z123">
+        <v>45958</v>
+      </c>
+      <c r="AC123" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C124">
+        <v>602095527</v>
+      </c>
+      <c r="D124">
+        <v>602095527</v>
+      </c>
+      <c r="E124">
+        <v>45960</v>
+      </c>
+      <c r="H124">
+        <v>6626.67</v>
+      </c>
+      <c r="K124" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P124" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="T124" t="str">
+        <v>42291645803_900087</v>
+      </c>
+      <c r="W124">
+        <v>96</v>
+      </c>
+      <c r="Y124">
+        <v>45957</v>
+      </c>
+      <c r="Z124">
+        <v>45958</v>
+      </c>
+      <c r="AC124" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C125">
+        <v>602095021</v>
+      </c>
+      <c r="D125">
+        <v>602095021</v>
+      </c>
+      <c r="E125">
+        <v>45960</v>
+      </c>
+      <c r="H125">
+        <v>6229.1</v>
+      </c>
+      <c r="K125" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P125" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="T125" t="str">
+        <v>42291645803_900087</v>
+      </c>
+      <c r="W125">
+        <v>96</v>
+      </c>
+      <c r="Y125">
+        <v>45957</v>
+      </c>
+      <c r="Z125">
+        <v>45959</v>
+      </c>
+      <c r="AC125" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C126">
+        <v>602095064</v>
+      </c>
+      <c r="D126">
+        <v>602095064</v>
+      </c>
+      <c r="E126">
+        <v>45960</v>
+      </c>
+      <c r="H126">
+        <v>6229.1</v>
+      </c>
+      <c r="K126" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P126" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="T126" t="str">
+        <v>42291645803_900087</v>
+      </c>
+      <c r="W126">
+        <v>96</v>
+      </c>
+      <c r="Y126">
+        <v>45957</v>
+      </c>
+      <c r="Z126">
+        <v>45959</v>
+      </c>
+      <c r="AC126" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C127">
+        <v>602099746</v>
+      </c>
+      <c r="D127">
+        <v>602099746</v>
+      </c>
+      <c r="E127">
+        <v>45960</v>
+      </c>
+      <c r="H127">
+        <v>4632.92</v>
+      </c>
+      <c r="K127" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P127" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="T127" t="str">
+        <v>42291645803_900087</v>
+      </c>
+      <c r="W127">
+        <v>96</v>
+      </c>
+      <c r="Y127">
+        <v>45958</v>
+      </c>
+      <c r="Z127">
+        <v>45958</v>
+      </c>
+      <c r="AC127" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C128">
+        <v>602099770</v>
+      </c>
+      <c r="D128">
+        <v>602099770</v>
+      </c>
+      <c r="E128">
+        <v>45960</v>
+      </c>
+      <c r="H128">
+        <v>4632.92</v>
+      </c>
+      <c r="K128" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P128" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="T128" t="str">
+        <v>42291645803_900087</v>
+      </c>
+      <c r="W128">
+        <v>96</v>
+      </c>
+      <c r="Y128">
+        <v>45958</v>
+      </c>
+      <c r="Z128">
+        <v>45959</v>
+      </c>
+      <c r="AC128" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C129">
+        <v>602100459</v>
+      </c>
+      <c r="D129">
+        <v>602100459</v>
+      </c>
+      <c r="E129">
+        <v>45960</v>
+      </c>
+      <c r="H129">
+        <v>6299.93</v>
+      </c>
+      <c r="K129" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P129" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="T129" t="str">
+        <v>42291645803_900087</v>
+      </c>
+      <c r="W129">
+        <v>96</v>
+      </c>
+      <c r="Y129">
+        <v>45958</v>
+      </c>
+      <c r="Z129">
+        <v>45959</v>
+      </c>
+      <c r="AC129" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C130">
+        <v>602100541</v>
+      </c>
+      <c r="D130">
+        <v>602100541</v>
+      </c>
+      <c r="E130">
+        <v>45960</v>
+      </c>
+      <c r="H130">
+        <v>6299.93</v>
+      </c>
+      <c r="K130" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P130" t="str">
+        <v>Cartão c/ saque</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="T130" t="str">
+        <v>42291645803_900087</v>
+      </c>
+      <c r="W130">
+        <v>96</v>
+      </c>
+      <c r="Y130">
+        <v>45958</v>
+      </c>
+      <c r="Z130">
+        <v>45959</v>
+      </c>
+      <c r="AC130" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C131" t="str">
+        <v>373C8GDWQ6643</v>
+      </c>
+      <c r="D131" t="str">
+        <v>373C8GDWQ6643</v>
+      </c>
+      <c r="E131">
+        <v>45960</v>
+      </c>
+      <c r="H131">
+        <v>466.67</v>
+      </c>
+      <c r="K131" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P131" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R131" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T131" t="str">
+        <v>danny_jesza@yahoo.com.br</v>
+      </c>
+      <c r="W131">
+        <v>7</v>
+      </c>
+      <c r="Y131">
+        <v>45960</v>
+      </c>
+      <c r="Z131">
+        <v>45960</v>
+      </c>
+      <c r="AC131" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C132" t="str">
+        <v>373VY28LA2495</v>
+      </c>
+      <c r="D132" t="str">
+        <v>373VY28LA2495</v>
+      </c>
+      <c r="E132">
+        <v>45960</v>
+      </c>
+      <c r="H132">
+        <v>95.61</v>
+      </c>
+      <c r="K132" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P132" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R132" t="str">
+        <v>BR0034</v>
+      </c>
+      <c r="T132" t="str">
+        <v>mogiana.credito@gmail.com</v>
+      </c>
+      <c r="W132">
+        <v>7</v>
+      </c>
+      <c r="Y132">
+        <v>45960</v>
+      </c>
+      <c r="Z132">
+        <v>45960</v>
+      </c>
+      <c r="AC132" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C133">
+        <v>3730256417031</v>
+      </c>
+      <c r="D133">
+        <v>3730256417031</v>
+      </c>
+      <c r="E133">
+        <v>45960</v>
+      </c>
+      <c r="H133">
+        <v>1027.72</v>
+      </c>
+      <c r="K133" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P133" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R133" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T133" t="str">
+        <v>vanessafernandes1108@gmail.com</v>
+      </c>
+      <c r="W133">
+        <v>8</v>
+      </c>
+      <c r="Y133">
+        <v>45960</v>
+      </c>
+      <c r="Z133">
+        <v>45960</v>
+      </c>
+      <c r="AC133" t="str">
+        <v>AVISTA</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134" t="str">
+        <v>V8 DIGITAL</v>
+      </c>
+      <c r="C134">
+        <v>3730256502129</v>
+      </c>
+      <c r="D134">
+        <v>3730256502129</v>
+      </c>
+      <c r="E134">
+        <v>45960</v>
+      </c>
+      <c r="H134">
+        <v>143.22</v>
+      </c>
+      <c r="K134" t="str">
+        <v>DIRETA</v>
+      </c>
+      <c r="P134" t="str">
+        <v>Margem Livre (Novo)</v>
+      </c>
+      <c r="R134" t="str">
+        <v>BR0035</v>
+      </c>
+      <c r="T134" t="str">
+        <v>mauricio.sanches.weclever@gmail.com</v>
+      </c>
+      <c r="W134">
+        <v>7</v>
+      </c>
+      <c r="Y134">
+        <v>45960</v>
+      </c>
+      <c r="Z134">
+        <v>45960</v>
+      </c>
+      <c r="AC134" t="str">
+        <v>AVISTA</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AD56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AD134"/>
   </ignoredErrors>
 </worksheet>
 </file>